--- a/Result_Supply.xlsx
+++ b/Result_Supply.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Sl.No</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>M ABHISHEK</t>
+  </si>
+  <si>
+    <t>2401100CSE0153</t>
+  </si>
+  <si>
+    <t>MEDAM SAI TEJA</t>
   </si>
 </sst>
 </file>
@@ -393,14 +399,14 @@
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1140,7 +1146,9 @@
       <c r="AW5" s="26"/>
     </row>
     <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="22"/>
+      <c r="A6" s="18">
+        <v>4.0</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1213,9 @@
       <c r="AW6" s="26"/>
     </row>
     <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="18">
+        <v>5.0</v>
+      </c>
       <c r="B7" s="27" t="s">
         <v>35</v>
       </c>
@@ -1270,7 +1280,9 @@
       <c r="AW7" s="26"/>
     </row>
     <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="18">
+        <v>6.0</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>37</v>
       </c>
@@ -1280,10 +1292,10 @@
       <c r="D8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>0.0</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1335,13 +1347,27 @@
       <c r="AW8" s="26"/>
     </row>
     <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
@@ -1382,13 +1408,15 @@
       <c r="AS9" s="23"/>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23"/>
-      <c r="AV9" s="26"/>
+      <c r="AV9" s="29">
+        <v>6.1</v>
+      </c>
       <c r="AW9" s="26"/>
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -1437,8 +1465,8 @@
       <c r="AW10" s="26"/>
     </row>
     <row r="11" ht="18.0" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="33"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
@@ -1489,8 +1517,8 @@
     </row>
     <row r="12" ht="18.0" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -1539,9 +1567,9 @@
       <c r="AW12" s="26"/>
     </row>
     <row r="13" ht="18.0" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -1591,8 +1619,8 @@
     </row>
     <row r="14" ht="18.0" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -1641,9 +1669,9 @@
       <c r="AW14" s="26"/>
     </row>
     <row r="15" ht="18.0" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -1693,8 +1721,8 @@
     </row>
     <row r="16" ht="18.0" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -1743,9 +1771,9 @@
       <c r="AW16" s="26"/>
     </row>
     <row r="17" ht="18.0" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1795,8 +1823,8 @@
     </row>
     <row r="18" ht="18.0" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -1845,9 +1873,9 @@
       <c r="AW18" s="26"/>
     </row>
     <row r="19" ht="18.0" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -1897,8 +1925,8 @@
     </row>
     <row r="20" ht="18.0" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -1947,9 +1975,9 @@
       <c r="AW20" s="26"/>
     </row>
     <row r="21" ht="18.0" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -1999,8 +2027,8 @@
     </row>
     <row r="22" ht="18.0" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -2049,9 +2077,9 @@
       <c r="AW22" s="26"/>
     </row>
     <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -2101,8 +2129,8 @@
     </row>
     <row r="24" ht="18.0" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -2151,9 +2179,9 @@
       <c r="AW24" s="26"/>
     </row>
     <row r="25" ht="18.0" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -2203,8 +2231,8 @@
     </row>
     <row r="26" ht="18.0" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -2253,8 +2281,8 @@
       <c r="AW26" s="26"/>
     </row>
     <row r="27" ht="18.0" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="33"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
@@ -2305,8 +2333,8 @@
     </row>
     <row r="28" ht="18.0" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -2355,9 +2383,9 @@
       <c r="AW28" s="26"/>
     </row>
     <row r="29" ht="18.0" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -2407,8 +2435,8 @@
     </row>
     <row r="30" ht="18.0" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -2457,9 +2485,9 @@
       <c r="AW30" s="26"/>
     </row>
     <row r="31" ht="18.0" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -2509,8 +2537,8 @@
     </row>
     <row r="32" ht="18.0" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -2559,9 +2587,9 @@
       <c r="AW32" s="26"/>
     </row>
     <row r="33" ht="18.0" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -2611,8 +2639,8 @@
     </row>
     <row r="34" ht="18.0" customHeight="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
@@ -2661,9 +2689,9 @@
       <c r="AW34" s="26"/>
     </row>
     <row r="35" ht="18.0" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
@@ -2713,8 +2741,8 @@
     </row>
     <row r="36" ht="18.0" customHeight="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -2763,9 +2791,9 @@
       <c r="AW36" s="26"/>
     </row>
     <row r="37" ht="18.0" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
@@ -2815,8 +2843,8 @@
     </row>
     <row r="38" ht="18.0" customHeight="1">
       <c r="A38" s="22"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
@@ -2865,9 +2893,9 @@
       <c r="AW38" s="26"/>
     </row>
     <row r="39" ht="18.0" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="22"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -2917,8 +2945,8 @@
     </row>
     <row r="40" ht="18.0" customHeight="1">
       <c r="A40" s="22"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="22"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -2967,9 +2995,9 @@
       <c r="AW40" s="26"/>
     </row>
     <row r="41" ht="18.0" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
@@ -3019,8 +3047,8 @@
     </row>
     <row r="42" ht="18.0" customHeight="1">
       <c r="A42" s="22"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="22"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
@@ -3069,9 +3097,9 @@
       <c r="AW42" s="26"/>
     </row>
     <row r="43" ht="18.0" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="22"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -3121,8 +3149,8 @@
     </row>
     <row r="44" ht="18.0" customHeight="1">
       <c r="A44" s="22"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="22"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -3171,9 +3199,9 @@
       <c r="AW44" s="26"/>
     </row>
     <row r="45" ht="18.0" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="22"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
@@ -3223,8 +3251,8 @@
     </row>
     <row r="46" ht="18.0" customHeight="1">
       <c r="A46" s="22"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="22"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
@@ -3273,9 +3301,9 @@
       <c r="AW46" s="26"/>
     </row>
     <row r="47" ht="18.0" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="22"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -3325,8 +3353,8 @@
     </row>
     <row r="48" ht="18.0" customHeight="1">
       <c r="A48" s="22"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="22"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -3375,9 +3403,9 @@
       <c r="AW48" s="26"/>
     </row>
     <row r="49" ht="18.0" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="22"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -3427,8 +3455,8 @@
     </row>
     <row r="50" ht="18.0" customHeight="1">
       <c r="A50" s="22"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="22"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -3477,9 +3505,9 @@
       <c r="AW50" s="26"/>
     </row>
     <row r="51" ht="18.0" customHeight="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="22"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
@@ -3529,8 +3557,8 @@
     </row>
     <row r="52" ht="18.0" customHeight="1">
       <c r="A52" s="22"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="22"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
@@ -3579,9 +3607,9 @@
       <c r="AW52" s="26"/>
     </row>
     <row r="53" ht="18.0" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="22"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
@@ -3631,8 +3659,8 @@
     </row>
     <row r="54" ht="18.0" customHeight="1">
       <c r="A54" s="22"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="22"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
@@ -3681,9 +3709,9 @@
       <c r="AW54" s="26"/>
     </row>
     <row r="55" ht="18.0" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="22"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
@@ -3733,8 +3761,8 @@
     </row>
     <row r="56" ht="18.0" customHeight="1">
       <c r="A56" s="22"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="22"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
@@ -3783,9 +3811,9 @@
       <c r="AW56" s="26"/>
     </row>
     <row r="57" ht="18.0" customHeight="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="22"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
@@ -3835,8 +3863,8 @@
     </row>
     <row r="58" ht="18.0" customHeight="1">
       <c r="A58" s="22"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="22"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
@@ -3885,9 +3913,9 @@
       <c r="AW58" s="26"/>
     </row>
     <row r="59" ht="18.0" customHeight="1">
-      <c r="A59" s="30"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="22"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
@@ -3937,8 +3965,8 @@
     </row>
     <row r="60" ht="18.0" customHeight="1">
       <c r="A60" s="22"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="22"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
@@ -3987,9 +4015,9 @@
       <c r="AW60" s="26"/>
     </row>
     <row r="61" ht="18.0" customHeight="1">
-      <c r="A61" s="30"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="22"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
@@ -4039,8 +4067,8 @@
     </row>
     <row r="62" ht="18.0" customHeight="1">
       <c r="A62" s="22"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="22"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
@@ -4089,9 +4117,9 @@
       <c r="AW62" s="26"/>
     </row>
     <row r="63" ht="18.0" customHeight="1">
-      <c r="A63" s="30"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="22"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
@@ -4141,8 +4169,8 @@
     </row>
     <row r="64" ht="18.0" customHeight="1">
       <c r="A64" s="22"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="22"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -4191,9 +4219,9 @@
       <c r="AW64" s="26"/>
     </row>
     <row r="65" ht="18.0" customHeight="1">
-      <c r="A65" s="30"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="22"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
@@ -4243,8 +4271,8 @@
     </row>
     <row r="66" ht="18.0" customHeight="1">
       <c r="A66" s="22"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="22"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
@@ -4293,9 +4321,9 @@
       <c r="AW66" s="26"/>
     </row>
     <row r="67" ht="18.0" customHeight="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="22"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
@@ -4345,8 +4373,8 @@
     </row>
     <row r="68" ht="18.0" customHeight="1">
       <c r="A68" s="22"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="22"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
@@ -4395,9 +4423,9 @@
       <c r="AW68" s="26"/>
     </row>
     <row r="69" ht="18.0" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="22"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
@@ -4447,8 +4475,8 @@
     </row>
     <row r="70" ht="18.0" customHeight="1">
       <c r="A70" s="22"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="22"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
@@ -4497,9 +4525,9 @@
       <c r="AW70" s="26"/>
     </row>
     <row r="71" ht="18.0" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="22"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
@@ -4549,8 +4577,8 @@
     </row>
     <row r="72" ht="18.0" customHeight="1">
       <c r="A72" s="22"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="22"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
@@ -4599,9 +4627,9 @@
       <c r="AW72" s="26"/>
     </row>
     <row r="73" ht="18.0" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="22"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
@@ -4651,7 +4679,7 @@
     </row>
     <row r="74" ht="18.0" customHeight="1">
       <c r="A74" s="22"/>
-      <c r="B74" s="32"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="33"/>
       <c r="D74" s="22"/>
       <c r="E74" s="23"/>
@@ -4701,8 +4729,8 @@
       <c r="AW74" s="26"/>
     </row>
     <row r="75" ht="18.0" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="33"/>
       <c r="D75" s="22"/>
       <c r="E75" s="23"/>
@@ -4753,8 +4781,8 @@
     </row>
     <row r="76" ht="18.0" customHeight="1">
       <c r="A76" s="22"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="22"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
@@ -4803,9 +4831,9 @@
       <c r="AW76" s="26"/>
     </row>
     <row r="77" ht="18.0" customHeight="1">
-      <c r="A77" s="30"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="22"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
@@ -4855,8 +4883,8 @@
     </row>
     <row r="78" ht="18.0" customHeight="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="22"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
@@ -4905,9 +4933,9 @@
       <c r="AW78" s="26"/>
     </row>
     <row r="79" ht="18.0" customHeight="1">
-      <c r="A79" s="30"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="22"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
@@ -4957,8 +4985,8 @@
     </row>
     <row r="80" ht="18.0" customHeight="1">
       <c r="A80" s="22"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="22"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
@@ -5007,9 +5035,9 @@
       <c r="AW80" s="26"/>
     </row>
     <row r="81" ht="18.0" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="22"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
@@ -5059,7 +5087,7 @@
     </row>
     <row r="82" ht="18.0" customHeight="1">
       <c r="A82" s="22"/>
-      <c r="B82" s="32"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="33"/>
       <c r="D82" s="22"/>
       <c r="E82" s="23"/>
@@ -5109,9 +5137,9 @@
       <c r="AW82" s="26"/>
     </row>
     <row r="83" ht="18.0" customHeight="1">
-      <c r="A83" s="30"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="22"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
@@ -5161,8 +5189,8 @@
     </row>
     <row r="84" ht="18.0" customHeight="1">
       <c r="A84" s="22"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="22"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
@@ -5211,9 +5239,9 @@
       <c r="AW84" s="26"/>
     </row>
     <row r="85" ht="18.0" customHeight="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="22"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
@@ -5263,8 +5291,8 @@
     </row>
     <row r="86" ht="18.0" customHeight="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="22"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
@@ -5313,9 +5341,9 @@
       <c r="AW86" s="26"/>
     </row>
     <row r="87" ht="18.0" customHeight="1">
-      <c r="A87" s="30"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="22"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
@@ -5365,8 +5393,8 @@
     </row>
     <row r="88" ht="18.0" customHeight="1">
       <c r="A88" s="22"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="22"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
@@ -5415,9 +5443,9 @@
       <c r="AW88" s="26"/>
     </row>
     <row r="89" ht="18.0" customHeight="1">
-      <c r="A89" s="30"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="22"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
@@ -5467,7 +5495,7 @@
     </row>
     <row r="90" ht="18.0" customHeight="1">
       <c r="A90" s="22"/>
-      <c r="B90" s="32"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="33"/>
       <c r="D90" s="22"/>
       <c r="E90" s="23"/>
@@ -5517,9 +5545,9 @@
       <c r="AW90" s="26"/>
     </row>
     <row r="91" ht="18.0" customHeight="1">
-      <c r="A91" s="30"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="22"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
@@ -5569,8 +5597,8 @@
     </row>
     <row r="92" ht="18.0" customHeight="1">
       <c r="A92" s="22"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="22"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
@@ -5619,9 +5647,9 @@
       <c r="AW92" s="26"/>
     </row>
     <row r="93" ht="18.0" customHeight="1">
-      <c r="A93" s="30"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="22"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
@@ -5671,8 +5699,8 @@
     </row>
     <row r="94" ht="18.0" customHeight="1">
       <c r="A94" s="22"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="22"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
@@ -5721,9 +5749,9 @@
       <c r="AW94" s="26"/>
     </row>
     <row r="95" ht="18.0" customHeight="1">
-      <c r="A95" s="30"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="22"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
@@ -5773,8 +5801,8 @@
     </row>
     <row r="96" ht="18.0" customHeight="1">
       <c r="A96" s="22"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="22"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
@@ -5823,9 +5851,9 @@
       <c r="AW96" s="26"/>
     </row>
     <row r="97" ht="18.0" customHeight="1">
-      <c r="A97" s="30"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="22"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
@@ -5875,8 +5903,8 @@
     </row>
     <row r="98" ht="18.0" customHeight="1">
       <c r="A98" s="22"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="22"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
@@ -5925,9 +5953,9 @@
       <c r="AW98" s="26"/>
     </row>
     <row r="99" ht="18.0" customHeight="1">
-      <c r="A99" s="30"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="22"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
@@ -5977,8 +6005,8 @@
     </row>
     <row r="100" ht="18.0" customHeight="1">
       <c r="A100" s="22"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="22"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
@@ -6027,9 +6055,9 @@
       <c r="AW100" s="26"/>
     </row>
     <row r="101" ht="18.0" customHeight="1">
-      <c r="A101" s="30"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="22"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
@@ -6079,7 +6107,7 @@
     </row>
     <row r="102" ht="18.0" customHeight="1">
       <c r="A102" s="22"/>
-      <c r="B102" s="32"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="33"/>
       <c r="D102" s="22"/>
       <c r="E102" s="23"/>
@@ -6129,9 +6157,9 @@
       <c r="AW102" s="26"/>
     </row>
     <row r="103" ht="18.0" customHeight="1">
-      <c r="A103" s="30"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="22"/>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
@@ -6181,8 +6209,8 @@
     </row>
     <row r="104" ht="18.0" customHeight="1">
       <c r="A104" s="22"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="22"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
@@ -6231,9 +6259,9 @@
       <c r="AW104" s="26"/>
     </row>
     <row r="105" ht="18.0" customHeight="1">
-      <c r="A105" s="30"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="22"/>
       <c r="E105" s="23"/>
       <c r="F105" s="23"/>
@@ -6283,8 +6311,8 @@
     </row>
     <row r="106" ht="18.0" customHeight="1">
       <c r="A106" s="22"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="22"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
@@ -6333,9 +6361,9 @@
       <c r="AW106" s="26"/>
     </row>
     <row r="107" ht="18.0" customHeight="1">
-      <c r="A107" s="30"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="22"/>
       <c r="E107" s="35"/>
       <c r="F107" s="35"/>
@@ -6385,8 +6413,8 @@
     </row>
     <row r="108" ht="18.0" customHeight="1">
       <c r="A108" s="22"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="22"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
@@ -6435,9 +6463,9 @@
       <c r="AW108" s="26"/>
     </row>
     <row r="109" ht="18.0" customHeight="1">
-      <c r="A109" s="30"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="22"/>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
@@ -6487,8 +6515,8 @@
     </row>
     <row r="110" ht="18.0" customHeight="1">
       <c r="A110" s="22"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="22"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
@@ -6537,9 +6565,9 @@
       <c r="AW110" s="26"/>
     </row>
     <row r="111" ht="18.0" customHeight="1">
-      <c r="A111" s="30"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="22"/>
       <c r="E111" s="23"/>
       <c r="F111" s="23"/>
@@ -6589,8 +6617,8 @@
     </row>
     <row r="112" ht="18.0" customHeight="1">
       <c r="A112" s="22"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="22"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
@@ -6639,9 +6667,9 @@
       <c r="AW112" s="26"/>
     </row>
     <row r="113" ht="18.0" customHeight="1">
-      <c r="A113" s="30"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="22"/>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
@@ -6691,8 +6719,8 @@
     </row>
     <row r="114" ht="18.0" customHeight="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="22"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
@@ -6741,9 +6769,9 @@
       <c r="AW114" s="26"/>
     </row>
     <row r="115" ht="18.0" customHeight="1">
-      <c r="A115" s="30"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
       <c r="D115" s="22"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
@@ -6793,8 +6821,8 @@
     </row>
     <row r="116" ht="18.0" customHeight="1">
       <c r="A116" s="22"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="22"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
@@ -6843,9 +6871,9 @@
       <c r="AW116" s="26"/>
     </row>
     <row r="117" ht="18.0" customHeight="1">
-      <c r="A117" s="30"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="22"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
@@ -6895,8 +6923,8 @@
     </row>
     <row r="118" ht="18.0" customHeight="1">
       <c r="A118" s="22"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
       <c r="D118" s="22"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
@@ -6945,9 +6973,9 @@
       <c r="AW118" s="26"/>
     </row>
     <row r="119" ht="18.0" customHeight="1">
-      <c r="A119" s="30"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="22"/>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
@@ -6997,8 +7025,8 @@
     </row>
     <row r="120" ht="18.0" customHeight="1">
       <c r="A120" s="22"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
       <c r="D120" s="22"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
@@ -7047,9 +7075,9 @@
       <c r="AW120" s="26"/>
     </row>
     <row r="121" ht="18.0" customHeight="1">
-      <c r="A121" s="30"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
       <c r="D121" s="22"/>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
@@ -7099,8 +7127,8 @@
     </row>
     <row r="122" ht="18.0" customHeight="1">
       <c r="A122" s="22"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
       <c r="D122" s="22"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
@@ -7149,9 +7177,9 @@
       <c r="AW122" s="26"/>
     </row>
     <row r="123" ht="18.0" customHeight="1">
-      <c r="A123" s="30"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="22"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
@@ -7201,8 +7229,8 @@
     </row>
     <row r="124" ht="18.0" customHeight="1">
       <c r="A124" s="22"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="22"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
@@ -7251,9 +7279,9 @@
       <c r="AW124" s="26"/>
     </row>
     <row r="125" ht="18.0" customHeight="1">
-      <c r="A125" s="30"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="22"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
@@ -7303,8 +7331,8 @@
     </row>
     <row r="126" ht="18.0" customHeight="1">
       <c r="A126" s="22"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
       <c r="D126" s="22"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
@@ -7353,9 +7381,9 @@
       <c r="AW126" s="26"/>
     </row>
     <row r="127" ht="18.0" customHeight="1">
-      <c r="A127" s="30"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="22"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
@@ -7405,8 +7433,8 @@
     </row>
     <row r="128" ht="18.0" customHeight="1">
       <c r="A128" s="22"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
       <c r="D128" s="22"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
@@ -7455,9 +7483,9 @@
       <c r="AW128" s="26"/>
     </row>
     <row r="129" ht="18.0" customHeight="1">
-      <c r="A129" s="30"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
       <c r="D129" s="22"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
@@ -7507,8 +7535,8 @@
     </row>
     <row r="130" ht="18.0" customHeight="1">
       <c r="A130" s="22"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
       <c r="D130" s="22"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
@@ -7557,9 +7585,9 @@
       <c r="AW130" s="26"/>
     </row>
     <row r="131" ht="18.0" customHeight="1">
-      <c r="A131" s="30"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="22"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
@@ -7609,8 +7637,8 @@
     </row>
     <row r="132" ht="18.0" customHeight="1">
       <c r="A132" s="22"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
       <c r="D132" s="22"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
@@ -7659,9 +7687,9 @@
       <c r="AW132" s="26"/>
     </row>
     <row r="133" ht="18.0" customHeight="1">
-      <c r="A133" s="30"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
       <c r="D133" s="22"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
@@ -7711,8 +7739,8 @@
     </row>
     <row r="134" ht="18.0" customHeight="1">
       <c r="A134" s="22"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
       <c r="D134" s="22"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
@@ -7761,9 +7789,9 @@
       <c r="AW134" s="26"/>
     </row>
     <row r="135" ht="18.0" customHeight="1">
-      <c r="A135" s="30"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
       <c r="D135" s="22"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
@@ -7813,8 +7841,8 @@
     </row>
     <row r="136" ht="18.0" customHeight="1">
       <c r="A136" s="22"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="22"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
@@ -7863,9 +7891,9 @@
       <c r="AW136" s="26"/>
     </row>
     <row r="137" ht="18.0" customHeight="1">
-      <c r="A137" s="30"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
+      <c r="A137" s="32"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
       <c r="D137" s="22"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
@@ -7915,8 +7943,8 @@
     </row>
     <row r="138" ht="18.0" customHeight="1">
       <c r="A138" s="22"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
       <c r="D138" s="22"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
@@ -7965,9 +7993,9 @@
       <c r="AW138" s="26"/>
     </row>
     <row r="139" ht="18.0" customHeight="1">
-      <c r="A139" s="30"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
       <c r="D139" s="22"/>
       <c r="E139" s="23"/>
       <c r="F139" s="23"/>
@@ -8017,8 +8045,8 @@
     </row>
     <row r="140" ht="18.0" customHeight="1">
       <c r="A140" s="22"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
       <c r="D140" s="22"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
@@ -8067,9 +8095,9 @@
       <c r="AW140" s="26"/>
     </row>
     <row r="141" ht="18.0" customHeight="1">
-      <c r="A141" s="30"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
       <c r="D141" s="22"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
@@ -8119,8 +8147,8 @@
     </row>
     <row r="142" ht="18.0" customHeight="1">
       <c r="A142" s="22"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
       <c r="D142" s="22"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
@@ -8169,9 +8197,9 @@
       <c r="AW142" s="26"/>
     </row>
     <row r="143" ht="18.0" customHeight="1">
-      <c r="A143" s="30"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="32"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="22"/>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
@@ -8221,8 +8249,8 @@
     </row>
     <row r="144" ht="18.0" customHeight="1">
       <c r="A144" s="22"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
       <c r="D144" s="22"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
@@ -8271,9 +8299,9 @@
       <c r="AW144" s="26"/>
     </row>
     <row r="145" ht="18.0" customHeight="1">
-      <c r="A145" s="30"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
       <c r="D145" s="22"/>
       <c r="E145" s="23"/>
       <c r="F145" s="23"/>
@@ -8323,8 +8351,8 @@
     </row>
     <row r="146" ht="18.0" customHeight="1">
       <c r="A146" s="22"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
       <c r="D146" s="22"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
@@ -8373,9 +8401,9 @@
       <c r="AW146" s="26"/>
     </row>
     <row r="147" ht="18.0" customHeight="1">
-      <c r="A147" s="30"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
+      <c r="A147" s="32"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
       <c r="D147" s="22"/>
       <c r="E147" s="23"/>
       <c r="F147" s="23"/>
@@ -8425,8 +8453,8 @@
     </row>
     <row r="148" ht="18.0" customHeight="1">
       <c r="A148" s="22"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="22"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
@@ -8475,9 +8503,9 @@
       <c r="AW148" s="26"/>
     </row>
     <row r="149" ht="18.0" customHeight="1">
-      <c r="A149" s="30"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="32"/>
+      <c r="A149" s="32"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
       <c r="D149" s="22"/>
       <c r="E149" s="23"/>
       <c r="F149" s="23"/>
@@ -8527,8 +8555,8 @@
     </row>
     <row r="150" ht="18.0" customHeight="1">
       <c r="A150" s="22"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="32"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
       <c r="D150" s="22"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
@@ -8577,9 +8605,9 @@
       <c r="AW150" s="26"/>
     </row>
     <row r="151" ht="18.0" customHeight="1">
-      <c r="A151" s="30"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="32"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
       <c r="D151" s="22"/>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
@@ -8629,8 +8657,8 @@
     </row>
     <row r="152" ht="18.0" customHeight="1">
       <c r="A152" s="22"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="32"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
       <c r="D152" s="22"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
@@ -8679,9 +8707,9 @@
       <c r="AW152" s="26"/>
     </row>
     <row r="153" ht="18.0" customHeight="1">
-      <c r="A153" s="30"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
+      <c r="A153" s="32"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="22"/>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
@@ -8731,8 +8759,8 @@
     </row>
     <row r="154" ht="18.0" customHeight="1">
       <c r="A154" s="22"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
       <c r="D154" s="22"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
@@ -8781,9 +8809,9 @@
       <c r="AW154" s="26"/>
     </row>
     <row r="155" ht="18.0" customHeight="1">
-      <c r="A155" s="30"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
+      <c r="A155" s="32"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
       <c r="D155" s="22"/>
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
@@ -8833,8 +8861,8 @@
     </row>
     <row r="156" ht="18.0" customHeight="1">
       <c r="A156" s="22"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
       <c r="D156" s="22"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
@@ -8883,9 +8911,9 @@
       <c r="AW156" s="26"/>
     </row>
     <row r="157" ht="18.0" customHeight="1">
-      <c r="A157" s="30"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="32"/>
+      <c r="A157" s="32"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
       <c r="D157" s="22"/>
       <c r="E157" s="23"/>
       <c r="F157" s="23"/>
@@ -8935,8 +8963,8 @@
     </row>
     <row r="158" ht="18.0" customHeight="1">
       <c r="A158" s="22"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
       <c r="D158" s="22"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
@@ -8985,9 +9013,9 @@
       <c r="AW158" s="26"/>
     </row>
     <row r="159" ht="18.0" customHeight="1">
-      <c r="A159" s="30"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="32"/>
+      <c r="A159" s="32"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
       <c r="D159" s="22"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
@@ -9037,8 +9065,8 @@
     </row>
     <row r="160" ht="18.0" customHeight="1">
       <c r="A160" s="22"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="32"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
       <c r="D160" s="22"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
@@ -9087,9 +9115,9 @@
       <c r="AW160" s="26"/>
     </row>
     <row r="161" ht="18.0" customHeight="1">
-      <c r="A161" s="30"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
+      <c r="A161" s="32"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
       <c r="D161" s="22"/>
       <c r="E161" s="23"/>
       <c r="F161" s="23"/>
@@ -9139,8 +9167,8 @@
     </row>
     <row r="162" ht="18.0" customHeight="1">
       <c r="A162" s="22"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
       <c r="D162" s="22"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
@@ -9189,9 +9217,9 @@
       <c r="AW162" s="26"/>
     </row>
     <row r="163" ht="18.0" customHeight="1">
-      <c r="A163" s="30"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
+      <c r="A163" s="32"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
       <c r="D163" s="22"/>
       <c r="E163" s="23"/>
       <c r="F163" s="23"/>
@@ -9241,8 +9269,8 @@
     </row>
     <row r="164" ht="18.0" customHeight="1">
       <c r="A164" s="22"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
       <c r="D164" s="22"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
@@ -9291,9 +9319,9 @@
       <c r="AW164" s="26"/>
     </row>
     <row r="165" ht="18.0" customHeight="1">
-      <c r="A165" s="30"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="32"/>
+      <c r="A165" s="32"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
       <c r="D165" s="22"/>
       <c r="E165" s="23"/>
       <c r="F165" s="23"/>
@@ -9343,8 +9371,8 @@
     </row>
     <row r="166" ht="18.0" customHeight="1">
       <c r="A166" s="22"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
       <c r="D166" s="22"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
@@ -9393,9 +9421,9 @@
       <c r="AW166" s="26"/>
     </row>
     <row r="167" ht="18.0" customHeight="1">
-      <c r="A167" s="30"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
       <c r="D167" s="22"/>
       <c r="E167" s="23"/>
       <c r="F167" s="23"/>
@@ -9445,8 +9473,8 @@
     </row>
     <row r="168" ht="18.0" customHeight="1">
       <c r="A168" s="22"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
       <c r="D168" s="22"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
@@ -9495,9 +9523,9 @@
       <c r="AW168" s="26"/>
     </row>
     <row r="169" ht="18.0" customHeight="1">
-      <c r="A169" s="30"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
+      <c r="A169" s="32"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
       <c r="D169" s="22"/>
       <c r="E169" s="23"/>
       <c r="F169" s="23"/>
@@ -9547,8 +9575,8 @@
     </row>
     <row r="170" ht="18.0" customHeight="1">
       <c r="A170" s="22"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31"/>
       <c r="D170" s="22"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
@@ -9597,9 +9625,9 @@
       <c r="AW170" s="26"/>
     </row>
     <row r="171" ht="18.0" customHeight="1">
-      <c r="A171" s="30"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="32"/>
+      <c r="A171" s="32"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
       <c r="D171" s="22"/>
       <c r="E171" s="23"/>
       <c r="F171" s="23"/>
@@ -9649,8 +9677,8 @@
     </row>
     <row r="172" ht="18.0" customHeight="1">
       <c r="A172" s="22"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
       <c r="D172" s="22"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
@@ -9699,9 +9727,9 @@
       <c r="AW172" s="26"/>
     </row>
     <row r="173" ht="18.0" customHeight="1">
-      <c r="A173" s="30"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
+      <c r="A173" s="32"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
       <c r="D173" s="22"/>
       <c r="E173" s="23"/>
       <c r="F173" s="23"/>
@@ -9751,8 +9779,8 @@
     </row>
     <row r="174" ht="18.0" customHeight="1">
       <c r="A174" s="22"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="32"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
       <c r="D174" s="22"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
@@ -9801,9 +9829,9 @@
       <c r="AW174" s="26"/>
     </row>
     <row r="175" ht="18.0" customHeight="1">
-      <c r="A175" s="30"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
+      <c r="A175" s="32"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
       <c r="D175" s="22"/>
       <c r="E175" s="23"/>
       <c r="F175" s="23"/>
@@ -9853,8 +9881,8 @@
     </row>
     <row r="176" ht="18.0" customHeight="1">
       <c r="A176" s="22"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
       <c r="D176" s="22"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
@@ -9903,9 +9931,9 @@
       <c r="AW176" s="26"/>
     </row>
     <row r="177" ht="18.0" customHeight="1">
-      <c r="A177" s="30"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="32"/>
+      <c r="A177" s="32"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
       <c r="D177" s="22"/>
       <c r="E177" s="23"/>
       <c r="F177" s="23"/>
@@ -9955,7 +9983,7 @@
     </row>
     <row r="178" ht="18.0" customHeight="1">
       <c r="A178" s="22"/>
-      <c r="B178" s="32"/>
+      <c r="B178" s="31"/>
       <c r="C178" s="33"/>
       <c r="D178" s="22"/>
       <c r="E178" s="23"/>
@@ -10005,9 +10033,9 @@
       <c r="AW178" s="26"/>
     </row>
     <row r="179" ht="18.0" customHeight="1">
-      <c r="A179" s="30"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="32"/>
+      <c r="A179" s="32"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
       <c r="D179" s="22"/>
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
@@ -10057,8 +10085,8 @@
     </row>
     <row r="180" ht="18.0" customHeight="1">
       <c r="A180" s="22"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
       <c r="D180" s="22"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
@@ -10107,9 +10135,9 @@
       <c r="AW180" s="26"/>
     </row>
     <row r="181" ht="18.0" customHeight="1">
-      <c r="A181" s="30"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32"/>
+      <c r="A181" s="32"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
       <c r="D181" s="22"/>
       <c r="E181" s="23"/>
       <c r="F181" s="23"/>
@@ -10159,8 +10187,8 @@
     </row>
     <row r="182" ht="18.0" customHeight="1">
       <c r="A182" s="22"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
       <c r="D182" s="22"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
@@ -10209,9 +10237,9 @@
       <c r="AW182" s="26"/>
     </row>
     <row r="183" ht="18.0" customHeight="1">
-      <c r="A183" s="30"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
+      <c r="A183" s="32"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
       <c r="D183" s="22"/>
       <c r="E183" s="23"/>
       <c r="F183" s="23"/>
@@ -10261,8 +10289,8 @@
     </row>
     <row r="184" ht="18.0" customHeight="1">
       <c r="A184" s="22"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
       <c r="D184" s="22"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
@@ -10311,9 +10339,9 @@
       <c r="AW184" s="26"/>
     </row>
     <row r="185" ht="18.0" customHeight="1">
-      <c r="A185" s="30"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="32"/>
+      <c r="A185" s="32"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
       <c r="D185" s="22"/>
       <c r="E185" s="23"/>
       <c r="F185" s="23"/>
@@ -10363,8 +10391,8 @@
     </row>
     <row r="186" ht="18.0" customHeight="1">
       <c r="A186" s="22"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
       <c r="D186" s="22"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
@@ -10413,9 +10441,9 @@
       <c r="AW186" s="26"/>
     </row>
     <row r="187" ht="18.0" customHeight="1">
-      <c r="A187" s="30"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="32"/>
+      <c r="A187" s="32"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
       <c r="D187" s="22"/>
       <c r="E187" s="23"/>
       <c r="F187" s="23"/>
@@ -10465,8 +10493,8 @@
     </row>
     <row r="188" ht="18.0" customHeight="1">
       <c r="A188" s="22"/>
-      <c r="B188" s="32"/>
-      <c r="C188" s="32"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
       <c r="D188" s="22"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
@@ -10515,9 +10543,9 @@
       <c r="AW188" s="26"/>
     </row>
     <row r="189" ht="18.0" customHeight="1">
-      <c r="A189" s="30"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="32"/>
+      <c r="A189" s="32"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
       <c r="D189" s="22"/>
       <c r="E189" s="23"/>
       <c r="F189" s="23"/>
@@ -10567,8 +10595,8 @@
     </row>
     <row r="190" ht="18.0" customHeight="1">
       <c r="A190" s="22"/>
-      <c r="B190" s="32"/>
-      <c r="C190" s="32"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
       <c r="D190" s="22"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23"/>
@@ -10617,9 +10645,9 @@
       <c r="AW190" s="26"/>
     </row>
     <row r="191" ht="18.0" customHeight="1">
-      <c r="A191" s="30"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="32"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
       <c r="D191" s="22"/>
       <c r="E191" s="23"/>
       <c r="F191" s="23"/>
@@ -10669,8 +10697,8 @@
     </row>
     <row r="192" ht="18.0" customHeight="1">
       <c r="A192" s="22"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
       <c r="D192" s="22"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23"/>
@@ -10719,9 +10747,9 @@
       <c r="AW192" s="26"/>
     </row>
     <row r="193" ht="18.0" customHeight="1">
-      <c r="A193" s="30"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
       <c r="D193" s="22"/>
       <c r="E193" s="23"/>
       <c r="F193" s="23"/>
@@ -10771,8 +10799,8 @@
     </row>
     <row r="194" ht="18.0" customHeight="1">
       <c r="A194" s="22"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
       <c r="D194" s="22"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23"/>
@@ -10821,9 +10849,9 @@
       <c r="AW194" s="26"/>
     </row>
     <row r="195" ht="18.0" customHeight="1">
-      <c r="A195" s="30"/>
-      <c r="B195" s="32"/>
-      <c r="C195" s="32"/>
+      <c r="A195" s="32"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
       <c r="D195" s="22"/>
       <c r="E195" s="23"/>
       <c r="F195" s="23"/>
@@ -10873,8 +10901,8 @@
     </row>
     <row r="196" ht="18.0" customHeight="1">
       <c r="A196" s="22"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="31"/>
       <c r="D196" s="22"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23"/>
@@ -10923,9 +10951,9 @@
       <c r="AW196" s="26"/>
     </row>
     <row r="197" ht="18.0" customHeight="1">
-      <c r="A197" s="30"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
       <c r="D197" s="22"/>
       <c r="E197" s="23"/>
       <c r="F197" s="23"/>
@@ -10975,8 +11003,8 @@
     </row>
     <row r="198" ht="18.0" customHeight="1">
       <c r="A198" s="22"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="31"/>
       <c r="D198" s="22"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
@@ -11025,9 +11053,9 @@
       <c r="AW198" s="26"/>
     </row>
     <row r="199" ht="18.0" customHeight="1">
-      <c r="A199" s="30"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
+      <c r="A199" s="32"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
       <c r="D199" s="22"/>
       <c r="E199" s="23"/>
       <c r="F199" s="23"/>
@@ -11077,8 +11105,8 @@
     </row>
     <row r="200" ht="18.0" customHeight="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="31"/>
       <c r="D200" s="22"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
@@ -11127,9 +11155,9 @@
       <c r="AW200" s="26"/>
     </row>
     <row r="201" ht="18.0" customHeight="1">
-      <c r="A201" s="30"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
       <c r="D201" s="22"/>
       <c r="E201" s="23"/>
       <c r="F201" s="23"/>
@@ -11179,8 +11207,8 @@
     </row>
     <row r="202" ht="18.0" customHeight="1">
       <c r="A202" s="22"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="31"/>
       <c r="D202" s="22"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
@@ -11229,7 +11257,7 @@
       <c r="AW202" s="26"/>
     </row>
     <row r="203" ht="18.0" customHeight="1">
-      <c r="A203" s="30"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="33"/>
       <c r="C203" s="33"/>
       <c r="D203" s="38"/>
@@ -11281,8 +11309,8 @@
     </row>
     <row r="204" ht="18.0" customHeight="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="31"/>
       <c r="D204" s="22"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
@@ -11331,9 +11359,9 @@
       <c r="AW204" s="26"/>
     </row>
     <row r="205" ht="18.0" customHeight="1">
-      <c r="A205" s="30"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="32"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="31"/>
       <c r="D205" s="22"/>
       <c r="E205" s="23"/>
       <c r="F205" s="23"/>
@@ -11383,8 +11411,8 @@
     </row>
     <row r="206" ht="18.0" customHeight="1">
       <c r="A206" s="22"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="31"/>
       <c r="D206" s="22"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
@@ -11433,9 +11461,9 @@
       <c r="AW206" s="26"/>
     </row>
     <row r="207" ht="18.0" customHeight="1">
-      <c r="A207" s="30"/>
-      <c r="B207" s="32"/>
-      <c r="C207" s="32"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="31"/>
       <c r="D207" s="22"/>
       <c r="E207" s="23"/>
       <c r="F207" s="23"/>
@@ -11485,8 +11513,8 @@
     </row>
     <row r="208" ht="18.0" customHeight="1">
       <c r="A208" s="22"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="31"/>
       <c r="D208" s="22"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
@@ -11535,9 +11563,9 @@
       <c r="AW208" s="26"/>
     </row>
     <row r="209" ht="18.0" customHeight="1">
-      <c r="A209" s="30"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="32"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
       <c r="D209" s="22"/>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
@@ -11587,8 +11615,8 @@
     </row>
     <row r="210" ht="18.0" customHeight="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="32"/>
-      <c r="C210" s="32"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="31"/>
       <c r="D210" s="22"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
@@ -11637,9 +11665,9 @@
       <c r="AW210" s="26"/>
     </row>
     <row r="211" ht="18.0" customHeight="1">
-      <c r="A211" s="30"/>
-      <c r="B211" s="32"/>
-      <c r="C211" s="32"/>
+      <c r="A211" s="32"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
       <c r="D211" s="22"/>
       <c r="E211" s="23"/>
       <c r="F211" s="23"/>
@@ -11689,8 +11717,8 @@
     </row>
     <row r="212" ht="18.0" customHeight="1">
       <c r="A212" s="22"/>
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="31"/>
       <c r="D212" s="22"/>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
@@ -11739,9 +11767,9 @@
       <c r="AW212" s="26"/>
     </row>
     <row r="213" ht="18.0" customHeight="1">
-      <c r="A213" s="30"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="32"/>
+      <c r="A213" s="32"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="31"/>
       <c r="D213" s="22"/>
       <c r="E213" s="23"/>
       <c r="F213" s="23"/>
@@ -11791,8 +11819,8 @@
     </row>
     <row r="214" ht="18.0" customHeight="1">
       <c r="A214" s="22"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="32"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="31"/>
       <c r="D214" s="22"/>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
@@ -11841,9 +11869,9 @@
       <c r="AW214" s="26"/>
     </row>
     <row r="215" ht="18.0" customHeight="1">
-      <c r="A215" s="30"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="32"/>
+      <c r="A215" s="32"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="31"/>
       <c r="D215" s="22"/>
       <c r="E215" s="23"/>
       <c r="F215" s="23"/>
@@ -11893,8 +11921,8 @@
     </row>
     <row r="216" ht="18.0" customHeight="1">
       <c r="A216" s="22"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="32"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="31"/>
       <c r="D216" s="22"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
@@ -11943,9 +11971,9 @@
       <c r="AW216" s="26"/>
     </row>
     <row r="217" ht="18.0" customHeight="1">
-      <c r="A217" s="30"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="32"/>
+      <c r="A217" s="32"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
       <c r="D217" s="22"/>
       <c r="E217" s="23"/>
       <c r="F217" s="23"/>
@@ -11995,8 +12023,8 @@
     </row>
     <row r="218" ht="18.0" customHeight="1">
       <c r="A218" s="22"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="31"/>
       <c r="D218" s="22"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
@@ -12045,9 +12073,9 @@
       <c r="AW218" s="26"/>
     </row>
     <row r="219" ht="18.0" customHeight="1">
-      <c r="A219" s="30"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="32"/>
+      <c r="A219" s="32"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="31"/>
       <c r="D219" s="22"/>
       <c r="E219" s="23"/>
       <c r="F219" s="23"/>
@@ -12097,8 +12125,8 @@
     </row>
     <row r="220" ht="18.0" customHeight="1">
       <c r="A220" s="22"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="32"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="31"/>
       <c r="D220" s="22"/>
       <c r="E220" s="23"/>
       <c r="F220" s="23"/>
@@ -12147,9 +12175,9 @@
       <c r="AW220" s="26"/>
     </row>
     <row r="221" ht="18.0" customHeight="1">
-      <c r="A221" s="30"/>
-      <c r="B221" s="32"/>
-      <c r="C221" s="32"/>
+      <c r="A221" s="32"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="31"/>
       <c r="D221" s="22"/>
       <c r="E221" s="23"/>
       <c r="F221" s="23"/>
@@ -12199,8 +12227,8 @@
     </row>
     <row r="222" ht="18.0" customHeight="1">
       <c r="A222" s="22"/>
-      <c r="B222" s="32"/>
-      <c r="C222" s="32"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
       <c r="D222" s="22"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
@@ -12249,9 +12277,9 @@
       <c r="AW222" s="26"/>
     </row>
     <row r="223" ht="18.0" customHeight="1">
-      <c r="A223" s="30"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
+      <c r="A223" s="32"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="31"/>
       <c r="D223" s="22"/>
       <c r="E223" s="23"/>
       <c r="F223" s="23"/>
@@ -12301,8 +12329,8 @@
     </row>
     <row r="224" ht="18.0" customHeight="1">
       <c r="A224" s="22"/>
-      <c r="B224" s="32"/>
-      <c r="C224" s="32"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="31"/>
       <c r="D224" s="22"/>
       <c r="E224" s="23"/>
       <c r="F224" s="23"/>
@@ -12351,9 +12379,9 @@
       <c r="AW224" s="26"/>
     </row>
     <row r="225" ht="18.0" customHeight="1">
-      <c r="A225" s="30"/>
-      <c r="B225" s="32"/>
-      <c r="C225" s="32"/>
+      <c r="A225" s="32"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="31"/>
       <c r="D225" s="22"/>
       <c r="E225" s="23"/>
       <c r="F225" s="23"/>
@@ -12403,8 +12431,8 @@
     </row>
     <row r="226" ht="18.0" customHeight="1">
       <c r="A226" s="22"/>
-      <c r="B226" s="32"/>
-      <c r="C226" s="32"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="31"/>
       <c r="D226" s="22"/>
       <c r="E226" s="23"/>
       <c r="F226" s="23"/>
@@ -12453,9 +12481,9 @@
       <c r="AW226" s="26"/>
     </row>
     <row r="227" ht="18.0" customHeight="1">
-      <c r="A227" s="30"/>
-      <c r="B227" s="32"/>
-      <c r="C227" s="32"/>
+      <c r="A227" s="32"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="31"/>
       <c r="D227" s="22"/>
       <c r="E227" s="23"/>
       <c r="F227" s="23"/>
@@ -12505,8 +12533,8 @@
     </row>
     <row r="228" ht="18.0" customHeight="1">
       <c r="A228" s="22"/>
-      <c r="B228" s="32"/>
-      <c r="C228" s="32"/>
+      <c r="B228" s="31"/>
+      <c r="C228" s="31"/>
       <c r="D228" s="22"/>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
@@ -12555,9 +12583,9 @@
       <c r="AW228" s="26"/>
     </row>
     <row r="229" ht="18.0" customHeight="1">
-      <c r="A229" s="30"/>
-      <c r="B229" s="32"/>
-      <c r="C229" s="32"/>
+      <c r="A229" s="32"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="31"/>
       <c r="D229" s="22"/>
       <c r="E229" s="23"/>
       <c r="F229" s="23"/>
@@ -12607,8 +12635,8 @@
     </row>
     <row r="230" ht="18.0" customHeight="1">
       <c r="A230" s="22"/>
-      <c r="B230" s="32"/>
-      <c r="C230" s="32"/>
+      <c r="B230" s="31"/>
+      <c r="C230" s="31"/>
       <c r="D230" s="22"/>
       <c r="E230" s="23"/>
       <c r="F230" s="23"/>
@@ -12657,9 +12685,9 @@
       <c r="AW230" s="26"/>
     </row>
     <row r="231" ht="18.0" customHeight="1">
-      <c r="A231" s="30"/>
-      <c r="B231" s="32"/>
-      <c r="C231" s="32"/>
+      <c r="A231" s="32"/>
+      <c r="B231" s="31"/>
+      <c r="C231" s="31"/>
       <c r="D231" s="22"/>
       <c r="E231" s="23"/>
       <c r="F231" s="23"/>
@@ -12709,8 +12737,8 @@
     </row>
     <row r="232" ht="18.0" customHeight="1">
       <c r="A232" s="22"/>
-      <c r="B232" s="32"/>
-      <c r="C232" s="32"/>
+      <c r="B232" s="31"/>
+      <c r="C232" s="31"/>
       <c r="D232" s="22"/>
       <c r="E232" s="23"/>
       <c r="F232" s="23"/>
@@ -12759,9 +12787,9 @@
       <c r="AW232" s="26"/>
     </row>
     <row r="233" ht="18.0" customHeight="1">
-      <c r="A233" s="30"/>
-      <c r="B233" s="32"/>
-      <c r="C233" s="32"/>
+      <c r="A233" s="32"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="31"/>
       <c r="D233" s="22"/>
       <c r="E233" s="23"/>
       <c r="F233" s="23"/>
@@ -12811,8 +12839,8 @@
     </row>
     <row r="234" ht="18.0" customHeight="1">
       <c r="A234" s="22"/>
-      <c r="B234" s="32"/>
-      <c r="C234" s="32"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="31"/>
       <c r="D234" s="22"/>
       <c r="E234" s="23"/>
       <c r="F234" s="23"/>
@@ -12861,9 +12889,9 @@
       <c r="AW234" s="26"/>
     </row>
     <row r="235" ht="18.0" customHeight="1">
-      <c r="A235" s="30"/>
-      <c r="B235" s="32"/>
-      <c r="C235" s="32"/>
+      <c r="A235" s="32"/>
+      <c r="B235" s="31"/>
+      <c r="C235" s="31"/>
       <c r="D235" s="22"/>
       <c r="E235" s="23"/>
       <c r="F235" s="23"/>
@@ -12913,8 +12941,8 @@
     </row>
     <row r="236" ht="18.0" customHeight="1">
       <c r="A236" s="22"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="32"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="31"/>
       <c r="D236" s="22"/>
       <c r="E236" s="23"/>
       <c r="F236" s="23"/>
@@ -12963,9 +12991,9 @@
       <c r="AW236" s="26"/>
     </row>
     <row r="237" ht="18.0" customHeight="1">
-      <c r="A237" s="30"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="32"/>
+      <c r="A237" s="32"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="31"/>
       <c r="D237" s="22"/>
       <c r="E237" s="23"/>
       <c r="F237" s="23"/>
@@ -13015,8 +13043,8 @@
     </row>
     <row r="238" ht="18.0" customHeight="1">
       <c r="A238" s="22"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="32"/>
+      <c r="B238" s="31"/>
+      <c r="C238" s="31"/>
       <c r="D238" s="22"/>
       <c r="E238" s="23"/>
       <c r="F238" s="23"/>
@@ -13065,9 +13093,9 @@
       <c r="AW238" s="26"/>
     </row>
     <row r="239" ht="18.0" customHeight="1">
-      <c r="A239" s="30"/>
-      <c r="B239" s="32"/>
-      <c r="C239" s="32"/>
+      <c r="A239" s="32"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="31"/>
       <c r="D239" s="22"/>
       <c r="E239" s="23"/>
       <c r="F239" s="23"/>
@@ -13117,8 +13145,8 @@
     </row>
     <row r="240" ht="18.0" customHeight="1">
       <c r="A240" s="22"/>
-      <c r="B240" s="32"/>
-      <c r="C240" s="32"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="31"/>
       <c r="D240" s="22"/>
       <c r="E240" s="23"/>
       <c r="F240" s="23"/>
@@ -13167,9 +13195,9 @@
       <c r="AW240" s="26"/>
     </row>
     <row r="241" ht="18.0" customHeight="1">
-      <c r="A241" s="30"/>
-      <c r="B241" s="32"/>
-      <c r="C241" s="32"/>
+      <c r="A241" s="32"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="31"/>
       <c r="D241" s="22"/>
       <c r="E241" s="23"/>
       <c r="F241" s="23"/>
@@ -13219,8 +13247,8 @@
     </row>
     <row r="242" ht="18.0" customHeight="1">
       <c r="A242" s="22"/>
-      <c r="B242" s="32"/>
-      <c r="C242" s="32"/>
+      <c r="B242" s="31"/>
+      <c r="C242" s="31"/>
       <c r="D242" s="22"/>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
@@ -13269,9 +13297,9 @@
       <c r="AW242" s="26"/>
     </row>
     <row r="243" ht="18.0" customHeight="1">
-      <c r="A243" s="30"/>
-      <c r="B243" s="32"/>
-      <c r="C243" s="32"/>
+      <c r="A243" s="32"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="31"/>
       <c r="D243" s="22"/>
       <c r="E243" s="23"/>
       <c r="F243" s="23"/>
@@ -13321,8 +13349,8 @@
     </row>
     <row r="244" ht="18.0" customHeight="1">
       <c r="A244" s="22"/>
-      <c r="B244" s="32"/>
-      <c r="C244" s="32"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="31"/>
       <c r="D244" s="22"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
@@ -13371,9 +13399,9 @@
       <c r="AW244" s="26"/>
     </row>
     <row r="245" ht="18.0" customHeight="1">
-      <c r="A245" s="30"/>
-      <c r="B245" s="32"/>
-      <c r="C245" s="32"/>
+      <c r="A245" s="32"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="31"/>
       <c r="D245" s="22"/>
       <c r="E245" s="23"/>
       <c r="F245" s="23"/>
@@ -13423,8 +13451,8 @@
     </row>
     <row r="246" ht="18.0" customHeight="1">
       <c r="A246" s="22"/>
-      <c r="B246" s="32"/>
-      <c r="C246" s="32"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="31"/>
       <c r="D246" s="22"/>
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
@@ -13473,9 +13501,9 @@
       <c r="AW246" s="26"/>
     </row>
     <row r="247" ht="18.0" customHeight="1">
-      <c r="A247" s="30"/>
-      <c r="B247" s="32"/>
-      <c r="C247" s="32"/>
+      <c r="A247" s="32"/>
+      <c r="B247" s="31"/>
+      <c r="C247" s="31"/>
       <c r="D247" s="22"/>
       <c r="E247" s="23"/>
       <c r="F247" s="23"/>
@@ -13525,8 +13553,8 @@
     </row>
     <row r="248" ht="18.0" customHeight="1">
       <c r="A248" s="22"/>
-      <c r="B248" s="32"/>
-      <c r="C248" s="32"/>
+      <c r="B248" s="31"/>
+      <c r="C248" s="31"/>
       <c r="D248" s="22"/>
       <c r="E248" s="23"/>
       <c r="F248" s="23"/>
@@ -13575,9 +13603,9 @@
       <c r="AW248" s="26"/>
     </row>
     <row r="249" ht="18.0" customHeight="1">
-      <c r="A249" s="30"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="32"/>
+      <c r="A249" s="32"/>
+      <c r="B249" s="31"/>
+      <c r="C249" s="31"/>
       <c r="D249" s="22"/>
       <c r="E249" s="23"/>
       <c r="F249" s="23"/>
@@ -13627,8 +13655,8 @@
     </row>
     <row r="250" ht="18.0" customHeight="1">
       <c r="A250" s="22"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="32"/>
+      <c r="B250" s="31"/>
+      <c r="C250" s="31"/>
       <c r="D250" s="22"/>
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
@@ -13677,9 +13705,9 @@
       <c r="AW250" s="26"/>
     </row>
     <row r="251" ht="18.0" customHeight="1">
-      <c r="A251" s="30"/>
-      <c r="B251" s="32"/>
-      <c r="C251" s="32"/>
+      <c r="A251" s="32"/>
+      <c r="B251" s="31"/>
+      <c r="C251" s="31"/>
       <c r="D251" s="22"/>
       <c r="E251" s="23"/>
       <c r="F251" s="23"/>
@@ -13729,8 +13757,8 @@
     </row>
     <row r="252" ht="18.0" customHeight="1">
       <c r="A252" s="22"/>
-      <c r="B252" s="32"/>
-      <c r="C252" s="32"/>
+      <c r="B252" s="31"/>
+      <c r="C252" s="31"/>
       <c r="D252" s="22"/>
       <c r="E252" s="23"/>
       <c r="F252" s="23"/>
@@ -13779,9 +13807,9 @@
       <c r="AW252" s="26"/>
     </row>
     <row r="253" ht="18.0" customHeight="1">
-      <c r="A253" s="30"/>
-      <c r="B253" s="32"/>
-      <c r="C253" s="32"/>
+      <c r="A253" s="32"/>
+      <c r="B253" s="31"/>
+      <c r="C253" s="31"/>
       <c r="D253" s="22"/>
       <c r="E253" s="23"/>
       <c r="F253" s="23"/>
@@ -13831,8 +13859,8 @@
     </row>
     <row r="254" ht="18.0" customHeight="1">
       <c r="A254" s="22"/>
-      <c r="B254" s="32"/>
-      <c r="C254" s="32"/>
+      <c r="B254" s="31"/>
+      <c r="C254" s="31"/>
       <c r="D254" s="22"/>
       <c r="E254" s="23"/>
       <c r="F254" s="23"/>
@@ -13881,9 +13909,9 @@
       <c r="AW254" s="26"/>
     </row>
     <row r="255" ht="18.0" customHeight="1">
-      <c r="A255" s="30"/>
-      <c r="B255" s="32"/>
-      <c r="C255" s="32"/>
+      <c r="A255" s="32"/>
+      <c r="B255" s="31"/>
+      <c r="C255" s="31"/>
       <c r="D255" s="22"/>
       <c r="E255" s="23"/>
       <c r="F255" s="23"/>
@@ -13933,8 +13961,8 @@
     </row>
     <row r="256" ht="18.0" customHeight="1">
       <c r="A256" s="22"/>
-      <c r="B256" s="32"/>
-      <c r="C256" s="32"/>
+      <c r="B256" s="31"/>
+      <c r="C256" s="31"/>
       <c r="D256" s="22"/>
       <c r="E256" s="23"/>
       <c r="F256" s="23"/>
@@ -13983,9 +14011,9 @@
       <c r="AW256" s="26"/>
     </row>
     <row r="257" ht="18.0" customHeight="1">
-      <c r="A257" s="30"/>
-      <c r="B257" s="32"/>
-      <c r="C257" s="32"/>
+      <c r="A257" s="32"/>
+      <c r="B257" s="31"/>
+      <c r="C257" s="31"/>
       <c r="D257" s="22"/>
       <c r="E257" s="23"/>
       <c r="F257" s="23"/>
@@ -14035,8 +14063,8 @@
     </row>
     <row r="258" ht="18.0" customHeight="1">
       <c r="A258" s="22"/>
-      <c r="B258" s="32"/>
-      <c r="C258" s="32"/>
+      <c r="B258" s="31"/>
+      <c r="C258" s="31"/>
       <c r="D258" s="22"/>
       <c r="E258" s="23"/>
       <c r="F258" s="23"/>
@@ -14085,8 +14113,8 @@
       <c r="AW258" s="26"/>
     </row>
     <row r="259" ht="18.0" customHeight="1">
-      <c r="A259" s="30"/>
-      <c r="B259" s="32"/>
+      <c r="A259" s="32"/>
+      <c r="B259" s="31"/>
       <c r="C259" s="33"/>
       <c r="D259" s="22"/>
       <c r="E259" s="23"/>
@@ -14137,8 +14165,8 @@
     </row>
     <row r="260" ht="18.0" customHeight="1">
       <c r="A260" s="22"/>
-      <c r="B260" s="32"/>
-      <c r="C260" s="32"/>
+      <c r="B260" s="31"/>
+      <c r="C260" s="31"/>
       <c r="D260" s="22"/>
       <c r="E260" s="23"/>
       <c r="F260" s="23"/>
@@ -14187,9 +14215,9 @@
       <c r="AW260" s="26"/>
     </row>
     <row r="261" ht="18.0" customHeight="1">
-      <c r="A261" s="30"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="32"/>
+      <c r="A261" s="32"/>
+      <c r="B261" s="31"/>
+      <c r="C261" s="31"/>
       <c r="D261" s="22"/>
       <c r="E261" s="23"/>
       <c r="F261" s="23"/>
@@ -14239,8 +14267,8 @@
     </row>
     <row r="262" ht="18.0" customHeight="1">
       <c r="A262" s="22"/>
-      <c r="B262" s="32"/>
-      <c r="C262" s="32"/>
+      <c r="B262" s="31"/>
+      <c r="C262" s="31"/>
       <c r="D262" s="22"/>
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
@@ -14289,9 +14317,9 @@
       <c r="AW262" s="26"/>
     </row>
     <row r="263" ht="18.0" customHeight="1">
-      <c r="A263" s="30"/>
-      <c r="B263" s="32"/>
-      <c r="C263" s="32"/>
+      <c r="A263" s="32"/>
+      <c r="B263" s="31"/>
+      <c r="C263" s="31"/>
       <c r="D263" s="22"/>
       <c r="E263" s="23"/>
       <c r="F263" s="23"/>
@@ -14341,8 +14369,8 @@
     </row>
     <row r="264" ht="18.0" customHeight="1">
       <c r="A264" s="22"/>
-      <c r="B264" s="32"/>
-      <c r="C264" s="32"/>
+      <c r="B264" s="31"/>
+      <c r="C264" s="31"/>
       <c r="D264" s="22"/>
       <c r="E264" s="23"/>
       <c r="F264" s="23"/>
@@ -14391,9 +14419,9 @@
       <c r="AW264" s="26"/>
     </row>
     <row r="265" ht="18.0" customHeight="1">
-      <c r="A265" s="30"/>
-      <c r="B265" s="32"/>
-      <c r="C265" s="32"/>
+      <c r="A265" s="32"/>
+      <c r="B265" s="31"/>
+      <c r="C265" s="31"/>
       <c r="D265" s="22"/>
       <c r="E265" s="23"/>
       <c r="F265" s="23"/>
@@ -14443,8 +14471,8 @@
     </row>
     <row r="266" ht="18.0" customHeight="1">
       <c r="A266" s="22"/>
-      <c r="B266" s="32"/>
-      <c r="C266" s="32"/>
+      <c r="B266" s="31"/>
+      <c r="C266" s="31"/>
       <c r="D266" s="22"/>
       <c r="E266" s="23"/>
       <c r="F266" s="23"/>
@@ -14493,9 +14521,9 @@
       <c r="AW266" s="26"/>
     </row>
     <row r="267" ht="18.0" customHeight="1">
-      <c r="A267" s="30"/>
-      <c r="B267" s="32"/>
-      <c r="C267" s="32"/>
+      <c r="A267" s="32"/>
+      <c r="B267" s="31"/>
+      <c r="C267" s="31"/>
       <c r="D267" s="22"/>
       <c r="E267" s="23"/>
       <c r="F267" s="23"/>
@@ -14545,8 +14573,8 @@
     </row>
     <row r="268" ht="18.0" customHeight="1">
       <c r="A268" s="22"/>
-      <c r="B268" s="32"/>
-      <c r="C268" s="32"/>
+      <c r="B268" s="31"/>
+      <c r="C268" s="31"/>
       <c r="D268" s="22"/>
       <c r="E268" s="23"/>
       <c r="F268" s="23"/>
@@ -14595,9 +14623,9 @@
       <c r="AW268" s="26"/>
     </row>
     <row r="269" ht="18.0" customHeight="1">
-      <c r="A269" s="30"/>
-      <c r="B269" s="32"/>
-      <c r="C269" s="32"/>
+      <c r="A269" s="32"/>
+      <c r="B269" s="31"/>
+      <c r="C269" s="31"/>
       <c r="D269" s="22"/>
       <c r="E269" s="23"/>
       <c r="F269" s="23"/>
@@ -14647,8 +14675,8 @@
     </row>
     <row r="270" ht="18.0" customHeight="1">
       <c r="A270" s="22"/>
-      <c r="B270" s="32"/>
-      <c r="C270" s="32"/>
+      <c r="B270" s="31"/>
+      <c r="C270" s="31"/>
       <c r="D270" s="22"/>
       <c r="E270" s="23"/>
       <c r="F270" s="23"/>
@@ -14697,9 +14725,9 @@
       <c r="AW270" s="26"/>
     </row>
     <row r="271" ht="18.0" customHeight="1">
-      <c r="A271" s="30"/>
-      <c r="B271" s="32"/>
-      <c r="C271" s="32"/>
+      <c r="A271" s="32"/>
+      <c r="B271" s="31"/>
+      <c r="C271" s="31"/>
       <c r="D271" s="22"/>
       <c r="E271" s="23"/>
       <c r="F271" s="23"/>
@@ -14749,8 +14777,8 @@
     </row>
     <row r="272" ht="18.0" customHeight="1">
       <c r="A272" s="22"/>
-      <c r="B272" s="32"/>
-      <c r="C272" s="32"/>
+      <c r="B272" s="31"/>
+      <c r="C272" s="31"/>
       <c r="D272" s="22"/>
       <c r="E272" s="23"/>
       <c r="F272" s="23"/>
@@ -14799,9 +14827,9 @@
       <c r="AW272" s="26"/>
     </row>
     <row r="273" ht="18.0" customHeight="1">
-      <c r="A273" s="30"/>
-      <c r="B273" s="32"/>
-      <c r="C273" s="32"/>
+      <c r="A273" s="32"/>
+      <c r="B273" s="31"/>
+      <c r="C273" s="31"/>
       <c r="D273" s="22"/>
       <c r="E273" s="23"/>
       <c r="F273" s="23"/>
@@ -14851,8 +14879,8 @@
     </row>
     <row r="274" ht="18.0" customHeight="1">
       <c r="A274" s="22"/>
-      <c r="B274" s="32"/>
-      <c r="C274" s="32"/>
+      <c r="B274" s="31"/>
+      <c r="C274" s="31"/>
       <c r="D274" s="22"/>
       <c r="E274" s="23"/>
       <c r="F274" s="23"/>
@@ -14901,9 +14929,9 @@
       <c r="AW274" s="26"/>
     </row>
     <row r="275" ht="18.0" customHeight="1">
-      <c r="A275" s="30"/>
-      <c r="B275" s="32"/>
-      <c r="C275" s="32"/>
+      <c r="A275" s="32"/>
+      <c r="B275" s="31"/>
+      <c r="C275" s="31"/>
       <c r="D275" s="22"/>
       <c r="E275" s="23"/>
       <c r="F275" s="23"/>
@@ -14953,8 +14981,8 @@
     </row>
     <row r="276" ht="18.0" customHeight="1">
       <c r="A276" s="22"/>
-      <c r="B276" s="32"/>
-      <c r="C276" s="32"/>
+      <c r="B276" s="31"/>
+      <c r="C276" s="31"/>
       <c r="D276" s="22"/>
       <c r="E276" s="23"/>
       <c r="F276" s="23"/>
@@ -15003,9 +15031,9 @@
       <c r="AW276" s="26"/>
     </row>
     <row r="277" ht="18.0" customHeight="1">
-      <c r="A277" s="30"/>
-      <c r="B277" s="32"/>
-      <c r="C277" s="32"/>
+      <c r="A277" s="32"/>
+      <c r="B277" s="31"/>
+      <c r="C277" s="31"/>
       <c r="D277" s="22"/>
       <c r="E277" s="23"/>
       <c r="F277" s="23"/>
@@ -15055,8 +15083,8 @@
     </row>
     <row r="278" ht="18.0" customHeight="1">
       <c r="A278" s="22"/>
-      <c r="B278" s="32"/>
-      <c r="C278" s="32"/>
+      <c r="B278" s="31"/>
+      <c r="C278" s="31"/>
       <c r="D278" s="22"/>
       <c r="E278" s="23"/>
       <c r="F278" s="23"/>
@@ -15105,9 +15133,9 @@
       <c r="AW278" s="26"/>
     </row>
     <row r="279" ht="18.0" customHeight="1">
-      <c r="A279" s="30"/>
-      <c r="B279" s="32"/>
-      <c r="C279" s="32"/>
+      <c r="A279" s="32"/>
+      <c r="B279" s="31"/>
+      <c r="C279" s="31"/>
       <c r="D279" s="22"/>
       <c r="E279" s="23"/>
       <c r="F279" s="23"/>
@@ -15157,8 +15185,8 @@
     </row>
     <row r="280" ht="18.0" customHeight="1">
       <c r="A280" s="22"/>
-      <c r="B280" s="32"/>
-      <c r="C280" s="32"/>
+      <c r="B280" s="31"/>
+      <c r="C280" s="31"/>
       <c r="D280" s="22"/>
       <c r="E280" s="23"/>
       <c r="F280" s="23"/>
@@ -15207,9 +15235,9 @@
       <c r="AW280" s="26"/>
     </row>
     <row r="281" ht="18.0" customHeight="1">
-      <c r="A281" s="30"/>
-      <c r="B281" s="32"/>
-      <c r="C281" s="32"/>
+      <c r="A281" s="32"/>
+      <c r="B281" s="31"/>
+      <c r="C281" s="31"/>
       <c r="D281" s="22"/>
       <c r="E281" s="23"/>
       <c r="F281" s="23"/>
@@ -15259,8 +15287,8 @@
     </row>
     <row r="282" ht="18.0" customHeight="1">
       <c r="A282" s="22"/>
-      <c r="B282" s="32"/>
-      <c r="C282" s="32"/>
+      <c r="B282" s="31"/>
+      <c r="C282" s="31"/>
       <c r="D282" s="22"/>
       <c r="E282" s="23"/>
       <c r="F282" s="23"/>
@@ -15309,9 +15337,9 @@
       <c r="AW282" s="26"/>
     </row>
     <row r="283" ht="18.0" customHeight="1">
-      <c r="A283" s="30"/>
-      <c r="B283" s="32"/>
-      <c r="C283" s="32"/>
+      <c r="A283" s="32"/>
+      <c r="B283" s="31"/>
+      <c r="C283" s="31"/>
       <c r="D283" s="22"/>
       <c r="E283" s="23"/>
       <c r="F283" s="23"/>
@@ -15361,8 +15389,8 @@
     </row>
     <row r="284" ht="18.0" customHeight="1">
       <c r="A284" s="22"/>
-      <c r="B284" s="32"/>
-      <c r="C284" s="32"/>
+      <c r="B284" s="31"/>
+      <c r="C284" s="31"/>
       <c r="D284" s="22"/>
       <c r="E284" s="23"/>
       <c r="F284" s="23"/>
@@ -15411,9 +15439,9 @@
       <c r="AW284" s="26"/>
     </row>
     <row r="285" ht="18.0" customHeight="1">
-      <c r="A285" s="30"/>
-      <c r="B285" s="32"/>
-      <c r="C285" s="32"/>
+      <c r="A285" s="32"/>
+      <c r="B285" s="31"/>
+      <c r="C285" s="31"/>
       <c r="D285" s="22"/>
       <c r="E285" s="23"/>
       <c r="F285" s="23"/>
@@ -15463,8 +15491,8 @@
     </row>
     <row r="286" ht="18.0" customHeight="1">
       <c r="A286" s="22"/>
-      <c r="B286" s="32"/>
-      <c r="C286" s="32"/>
+      <c r="B286" s="31"/>
+      <c r="C286" s="31"/>
       <c r="D286" s="22"/>
       <c r="E286" s="23"/>
       <c r="F286" s="23"/>
@@ -15513,9 +15541,9 @@
       <c r="AW286" s="26"/>
     </row>
     <row r="287" ht="18.0" customHeight="1">
-      <c r="A287" s="30"/>
-      <c r="B287" s="32"/>
-      <c r="C287" s="32"/>
+      <c r="A287" s="32"/>
+      <c r="B287" s="31"/>
+      <c r="C287" s="31"/>
       <c r="D287" s="22"/>
       <c r="E287" s="23"/>
       <c r="F287" s="23"/>
@@ -15565,8 +15593,8 @@
     </row>
     <row r="288" ht="18.0" customHeight="1">
       <c r="A288" s="22"/>
-      <c r="B288" s="32"/>
-      <c r="C288" s="32"/>
+      <c r="B288" s="31"/>
+      <c r="C288" s="31"/>
       <c r="D288" s="22"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
@@ -15615,9 +15643,9 @@
       <c r="AW288" s="26"/>
     </row>
     <row r="289" ht="18.0" customHeight="1">
-      <c r="A289" s="30"/>
-      <c r="B289" s="32"/>
-      <c r="C289" s="32"/>
+      <c r="A289" s="32"/>
+      <c r="B289" s="31"/>
+      <c r="C289" s="31"/>
       <c r="D289" s="22"/>
       <c r="E289" s="23"/>
       <c r="F289" s="23"/>
@@ -15667,8 +15695,8 @@
     </row>
     <row r="290" ht="18.0" customHeight="1">
       <c r="A290" s="22"/>
-      <c r="B290" s="32"/>
-      <c r="C290" s="32"/>
+      <c r="B290" s="31"/>
+      <c r="C290" s="31"/>
       <c r="D290" s="22"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23"/>
@@ -15717,9 +15745,9 @@
       <c r="AW290" s="26"/>
     </row>
     <row r="291" ht="18.0" customHeight="1">
-      <c r="A291" s="30"/>
-      <c r="B291" s="32"/>
-      <c r="C291" s="32"/>
+      <c r="A291" s="32"/>
+      <c r="B291" s="31"/>
+      <c r="C291" s="31"/>
       <c r="D291" s="22"/>
       <c r="E291" s="23"/>
       <c r="F291" s="23"/>
@@ -15769,8 +15797,8 @@
     </row>
     <row r="292" ht="18.0" customHeight="1">
       <c r="A292" s="22"/>
-      <c r="B292" s="32"/>
-      <c r="C292" s="32"/>
+      <c r="B292" s="31"/>
+      <c r="C292" s="31"/>
       <c r="D292" s="22"/>
       <c r="E292" s="23"/>
       <c r="F292" s="23"/>
@@ -15819,9 +15847,9 @@
       <c r="AW292" s="26"/>
     </row>
     <row r="293" ht="18.0" customHeight="1">
-      <c r="A293" s="30"/>
-      <c r="B293" s="32"/>
-      <c r="C293" s="32"/>
+      <c r="A293" s="32"/>
+      <c r="B293" s="31"/>
+      <c r="C293" s="31"/>
       <c r="D293" s="22"/>
       <c r="E293" s="23"/>
       <c r="F293" s="23"/>
@@ -15871,8 +15899,8 @@
     </row>
     <row r="294" ht="18.0" customHeight="1">
       <c r="A294" s="22"/>
-      <c r="B294" s="32"/>
-      <c r="C294" s="32"/>
+      <c r="B294" s="31"/>
+      <c r="C294" s="31"/>
       <c r="D294" s="22"/>
       <c r="E294" s="23"/>
       <c r="F294" s="23"/>
@@ -15921,9 +15949,9 @@
       <c r="AW294" s="26"/>
     </row>
     <row r="295" ht="18.0" customHeight="1">
-      <c r="A295" s="30"/>
-      <c r="B295" s="32"/>
-      <c r="C295" s="32"/>
+      <c r="A295" s="32"/>
+      <c r="B295" s="31"/>
+      <c r="C295" s="31"/>
       <c r="D295" s="22"/>
       <c r="E295" s="23"/>
       <c r="F295" s="23"/>
@@ -15973,8 +16001,8 @@
     </row>
     <row r="296" ht="18.0" customHeight="1">
       <c r="A296" s="22"/>
-      <c r="B296" s="32"/>
-      <c r="C296" s="32"/>
+      <c r="B296" s="31"/>
+      <c r="C296" s="31"/>
       <c r="D296" s="22"/>
       <c r="E296" s="23"/>
       <c r="F296" s="23"/>
@@ -16023,9 +16051,9 @@
       <c r="AW296" s="26"/>
     </row>
     <row r="297" ht="18.0" customHeight="1">
-      <c r="A297" s="30"/>
-      <c r="B297" s="32"/>
-      <c r="C297" s="32"/>
+      <c r="A297" s="32"/>
+      <c r="B297" s="31"/>
+      <c r="C297" s="31"/>
       <c r="D297" s="22"/>
       <c r="E297" s="23"/>
       <c r="F297" s="23"/>
@@ -16075,8 +16103,8 @@
     </row>
     <row r="298" ht="18.0" customHeight="1">
       <c r="A298" s="22"/>
-      <c r="B298" s="32"/>
-      <c r="C298" s="32"/>
+      <c r="B298" s="31"/>
+      <c r="C298" s="31"/>
       <c r="D298" s="22"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23"/>
@@ -16125,9 +16153,9 @@
       <c r="AW298" s="26"/>
     </row>
     <row r="299" ht="18.0" customHeight="1">
-      <c r="A299" s="30"/>
-      <c r="B299" s="32"/>
-      <c r="C299" s="32"/>
+      <c r="A299" s="32"/>
+      <c r="B299" s="31"/>
+      <c r="C299" s="31"/>
       <c r="D299" s="22"/>
       <c r="E299" s="23"/>
       <c r="F299" s="23"/>
@@ -16177,8 +16205,8 @@
     </row>
     <row r="300" ht="18.0" customHeight="1">
       <c r="A300" s="22"/>
-      <c r="B300" s="32"/>
-      <c r="C300" s="32"/>
+      <c r="B300" s="31"/>
+      <c r="C300" s="31"/>
       <c r="D300" s="22"/>
       <c r="E300" s="23"/>
       <c r="F300" s="23"/>
@@ -16227,9 +16255,9 @@
       <c r="AW300" s="26"/>
     </row>
     <row r="301" ht="18.0" customHeight="1">
-      <c r="A301" s="30"/>
-      <c r="B301" s="32"/>
-      <c r="C301" s="32"/>
+      <c r="A301" s="32"/>
+      <c r="B301" s="31"/>
+      <c r="C301" s="31"/>
       <c r="D301" s="22"/>
       <c r="E301" s="23"/>
       <c r="F301" s="23"/>
@@ -16279,8 +16307,8 @@
     </row>
     <row r="302" ht="18.0" customHeight="1">
       <c r="A302" s="22"/>
-      <c r="B302" s="32"/>
-      <c r="C302" s="32"/>
+      <c r="B302" s="31"/>
+      <c r="C302" s="31"/>
       <c r="D302" s="22"/>
       <c r="E302" s="23"/>
       <c r="F302" s="23"/>
@@ -16329,9 +16357,9 @@
       <c r="AW302" s="26"/>
     </row>
     <row r="303" ht="18.0" customHeight="1">
-      <c r="A303" s="30"/>
-      <c r="B303" s="32"/>
-      <c r="C303" s="32"/>
+      <c r="A303" s="32"/>
+      <c r="B303" s="31"/>
+      <c r="C303" s="31"/>
       <c r="D303" s="22"/>
       <c r="E303" s="23"/>
       <c r="F303" s="23"/>
@@ -16381,8 +16409,8 @@
     </row>
     <row r="304" ht="18.0" customHeight="1">
       <c r="A304" s="22"/>
-      <c r="B304" s="32"/>
-      <c r="C304" s="32"/>
+      <c r="B304" s="31"/>
+      <c r="C304" s="31"/>
       <c r="D304" s="22"/>
       <c r="E304" s="23"/>
       <c r="F304" s="23"/>
@@ -16431,9 +16459,9 @@
       <c r="AW304" s="26"/>
     </row>
     <row r="305" ht="18.0" customHeight="1">
-      <c r="A305" s="30"/>
-      <c r="B305" s="32"/>
-      <c r="C305" s="32"/>
+      <c r="A305" s="32"/>
+      <c r="B305" s="31"/>
+      <c r="C305" s="31"/>
       <c r="D305" s="22"/>
       <c r="E305" s="23"/>
       <c r="F305" s="23"/>
@@ -16483,8 +16511,8 @@
     </row>
     <row r="306" ht="18.0" customHeight="1">
       <c r="A306" s="22"/>
-      <c r="B306" s="32"/>
-      <c r="C306" s="32"/>
+      <c r="B306" s="31"/>
+      <c r="C306" s="31"/>
       <c r="D306" s="22"/>
       <c r="E306" s="23"/>
       <c r="F306" s="23"/>
@@ -16533,9 +16561,9 @@
       <c r="AW306" s="26"/>
     </row>
     <row r="307" ht="18.0" customHeight="1">
-      <c r="A307" s="30"/>
-      <c r="B307" s="32"/>
-      <c r="C307" s="32"/>
+      <c r="A307" s="32"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="31"/>
       <c r="D307" s="22"/>
       <c r="E307" s="23"/>
       <c r="F307" s="23"/>
@@ -16585,8 +16613,8 @@
     </row>
     <row r="308" ht="18.0" customHeight="1">
       <c r="A308" s="22"/>
-      <c r="B308" s="32"/>
-      <c r="C308" s="32"/>
+      <c r="B308" s="31"/>
+      <c r="C308" s="31"/>
       <c r="D308" s="22"/>
       <c r="E308" s="23"/>
       <c r="F308" s="23"/>
@@ -16635,9 +16663,9 @@
       <c r="AW308" s="26"/>
     </row>
     <row r="309" ht="18.0" customHeight="1">
-      <c r="A309" s="30"/>
-      <c r="B309" s="32"/>
-      <c r="C309" s="32"/>
+      <c r="A309" s="32"/>
+      <c r="B309" s="31"/>
+      <c r="C309" s="31"/>
       <c r="D309" s="22"/>
       <c r="E309" s="23"/>
       <c r="F309" s="23"/>
@@ -16687,8 +16715,8 @@
     </row>
     <row r="310" ht="18.0" customHeight="1">
       <c r="A310" s="22"/>
-      <c r="B310" s="32"/>
-      <c r="C310" s="32"/>
+      <c r="B310" s="31"/>
+      <c r="C310" s="31"/>
       <c r="D310" s="22"/>
       <c r="E310" s="23"/>
       <c r="F310" s="23"/>
@@ -16737,9 +16765,9 @@
       <c r="AW310" s="26"/>
     </row>
     <row r="311" ht="18.0" customHeight="1">
-      <c r="A311" s="30"/>
-      <c r="B311" s="32"/>
-      <c r="C311" s="32"/>
+      <c r="A311" s="32"/>
+      <c r="B311" s="31"/>
+      <c r="C311" s="31"/>
       <c r="D311" s="22"/>
       <c r="E311" s="23"/>
       <c r="F311" s="23"/>
@@ -16789,8 +16817,8 @@
     </row>
     <row r="312" ht="18.0" customHeight="1">
       <c r="A312" s="22"/>
-      <c r="B312" s="32"/>
-      <c r="C312" s="32"/>
+      <c r="B312" s="31"/>
+      <c r="C312" s="31"/>
       <c r="D312" s="22"/>
       <c r="E312" s="23"/>
       <c r="F312" s="23"/>
@@ -16839,9 +16867,9 @@
       <c r="AW312" s="26"/>
     </row>
     <row r="313" ht="18.0" customHeight="1">
-      <c r="A313" s="30"/>
-      <c r="B313" s="32"/>
-      <c r="C313" s="32"/>
+      <c r="A313" s="32"/>
+      <c r="B313" s="31"/>
+      <c r="C313" s="31"/>
       <c r="D313" s="22"/>
       <c r="E313" s="23"/>
       <c r="F313" s="23"/>
@@ -16891,8 +16919,8 @@
     </row>
     <row r="314" ht="18.0" customHeight="1">
       <c r="A314" s="22"/>
-      <c r="B314" s="32"/>
-      <c r="C314" s="32"/>
+      <c r="B314" s="31"/>
+      <c r="C314" s="31"/>
       <c r="D314" s="22"/>
       <c r="E314" s="23"/>
       <c r="F314" s="23"/>
@@ -16941,9 +16969,9 @@
       <c r="AW314" s="26"/>
     </row>
     <row r="315" ht="18.0" customHeight="1">
-      <c r="A315" s="30"/>
-      <c r="B315" s="32"/>
-      <c r="C315" s="32"/>
+      <c r="A315" s="32"/>
+      <c r="B315" s="31"/>
+      <c r="C315" s="31"/>
       <c r="D315" s="22"/>
       <c r="E315" s="23"/>
       <c r="F315" s="23"/>
@@ -16993,8 +17021,8 @@
     </row>
     <row r="316" ht="18.0" customHeight="1">
       <c r="A316" s="22"/>
-      <c r="B316" s="32"/>
-      <c r="C316" s="32"/>
+      <c r="B316" s="31"/>
+      <c r="C316" s="31"/>
       <c r="D316" s="22"/>
       <c r="E316" s="23"/>
       <c r="F316" s="23"/>
@@ -17043,9 +17071,9 @@
       <c r="AW316" s="26"/>
     </row>
     <row r="317" ht="18.0" customHeight="1">
-      <c r="A317" s="30"/>
-      <c r="B317" s="32"/>
-      <c r="C317" s="32"/>
+      <c r="A317" s="32"/>
+      <c r="B317" s="31"/>
+      <c r="C317" s="31"/>
       <c r="D317" s="22"/>
       <c r="E317" s="23"/>
       <c r="F317" s="23"/>
@@ -17095,8 +17123,8 @@
     </row>
     <row r="318" ht="18.0" customHeight="1">
       <c r="A318" s="22"/>
-      <c r="B318" s="32"/>
-      <c r="C318" s="32"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="31"/>
       <c r="D318" s="22"/>
       <c r="E318" s="23"/>
       <c r="F318" s="23"/>
@@ -17145,9 +17173,9 @@
       <c r="AW318" s="26"/>
     </row>
     <row r="319" ht="18.0" customHeight="1">
-      <c r="A319" s="30"/>
-      <c r="B319" s="32"/>
-      <c r="C319" s="32"/>
+      <c r="A319" s="32"/>
+      <c r="B319" s="31"/>
+      <c r="C319" s="31"/>
       <c r="D319" s="22"/>
       <c r="E319" s="23"/>
       <c r="F319" s="23"/>
@@ -17197,8 +17225,8 @@
     </row>
     <row r="320" ht="18.0" customHeight="1">
       <c r="A320" s="22"/>
-      <c r="B320" s="32"/>
-      <c r="C320" s="32"/>
+      <c r="B320" s="31"/>
+      <c r="C320" s="31"/>
       <c r="D320" s="22"/>
       <c r="E320" s="23"/>
       <c r="F320" s="23"/>
@@ -17247,9 +17275,9 @@
       <c r="AW320" s="26"/>
     </row>
     <row r="321" ht="18.0" customHeight="1">
-      <c r="A321" s="30"/>
-      <c r="B321" s="32"/>
-      <c r="C321" s="32"/>
+      <c r="A321" s="32"/>
+      <c r="B321" s="31"/>
+      <c r="C321" s="31"/>
       <c r="D321" s="22"/>
       <c r="E321" s="23"/>
       <c r="F321" s="23"/>
@@ -17299,8 +17327,8 @@
     </row>
     <row r="322" ht="18.0" customHeight="1">
       <c r="A322" s="22"/>
-      <c r="B322" s="32"/>
-      <c r="C322" s="32"/>
+      <c r="B322" s="31"/>
+      <c r="C322" s="31"/>
       <c r="D322" s="22"/>
       <c r="E322" s="23"/>
       <c r="F322" s="23"/>
@@ -17349,9 +17377,9 @@
       <c r="AW322" s="26"/>
     </row>
     <row r="323" ht="18.0" customHeight="1">
-      <c r="A323" s="30"/>
-      <c r="B323" s="32"/>
-      <c r="C323" s="32"/>
+      <c r="A323" s="32"/>
+      <c r="B323" s="31"/>
+      <c r="C323" s="31"/>
       <c r="D323" s="22"/>
       <c r="E323" s="23"/>
       <c r="F323" s="23"/>
@@ -17401,8 +17429,8 @@
     </row>
     <row r="324" ht="18.0" customHeight="1">
       <c r="A324" s="22"/>
-      <c r="B324" s="32"/>
-      <c r="C324" s="32"/>
+      <c r="B324" s="31"/>
+      <c r="C324" s="31"/>
       <c r="D324" s="22"/>
       <c r="E324" s="23"/>
       <c r="F324" s="23"/>
@@ -17451,9 +17479,9 @@
       <c r="AW324" s="26"/>
     </row>
     <row r="325" ht="18.0" customHeight="1">
-      <c r="A325" s="30"/>
-      <c r="B325" s="32"/>
-      <c r="C325" s="32"/>
+      <c r="A325" s="32"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="31"/>
       <c r="D325" s="22"/>
       <c r="E325" s="23"/>
       <c r="F325" s="23"/>
@@ -17503,8 +17531,8 @@
     </row>
     <row r="326" ht="18.0" customHeight="1">
       <c r="A326" s="22"/>
-      <c r="B326" s="32"/>
-      <c r="C326" s="32"/>
+      <c r="B326" s="31"/>
+      <c r="C326" s="31"/>
       <c r="D326" s="22"/>
       <c r="E326" s="23"/>
       <c r="F326" s="23"/>
@@ -17553,9 +17581,9 @@
       <c r="AW326" s="26"/>
     </row>
     <row r="327" ht="18.0" customHeight="1">
-      <c r="A327" s="30"/>
-      <c r="B327" s="32"/>
-      <c r="C327" s="32"/>
+      <c r="A327" s="32"/>
+      <c r="B327" s="31"/>
+      <c r="C327" s="31"/>
       <c r="D327" s="22"/>
       <c r="E327" s="23"/>
       <c r="F327" s="23"/>
@@ -17605,8 +17633,8 @@
     </row>
     <row r="328" ht="18.0" customHeight="1">
       <c r="A328" s="22"/>
-      <c r="B328" s="32"/>
-      <c r="C328" s="32"/>
+      <c r="B328" s="31"/>
+      <c r="C328" s="31"/>
       <c r="D328" s="22"/>
       <c r="E328" s="23"/>
       <c r="F328" s="23"/>
@@ -17655,9 +17683,9 @@
       <c r="AW328" s="26"/>
     </row>
     <row r="329" ht="18.0" customHeight="1">
-      <c r="A329" s="30"/>
-      <c r="B329" s="32"/>
-      <c r="C329" s="32"/>
+      <c r="A329" s="32"/>
+      <c r="B329" s="31"/>
+      <c r="C329" s="31"/>
       <c r="D329" s="22"/>
       <c r="E329" s="23"/>
       <c r="F329" s="23"/>
@@ -17707,8 +17735,8 @@
     </row>
     <row r="330" ht="18.0" customHeight="1">
       <c r="A330" s="22"/>
-      <c r="B330" s="32"/>
-      <c r="C330" s="32"/>
+      <c r="B330" s="31"/>
+      <c r="C330" s="31"/>
       <c r="D330" s="22"/>
       <c r="E330" s="23"/>
       <c r="F330" s="23"/>
@@ -17757,9 +17785,9 @@
       <c r="AW330" s="26"/>
     </row>
     <row r="331" ht="18.0" customHeight="1">
-      <c r="A331" s="30"/>
-      <c r="B331" s="32"/>
-      <c r="C331" s="32"/>
+      <c r="A331" s="32"/>
+      <c r="B331" s="31"/>
+      <c r="C331" s="31"/>
       <c r="D331" s="22"/>
       <c r="E331" s="23"/>
       <c r="F331" s="23"/>
@@ -17809,8 +17837,8 @@
     </row>
     <row r="332" ht="18.0" customHeight="1">
       <c r="A332" s="22"/>
-      <c r="B332" s="32"/>
-      <c r="C332" s="32"/>
+      <c r="B332" s="31"/>
+      <c r="C332" s="31"/>
       <c r="D332" s="22"/>
       <c r="E332" s="23"/>
       <c r="F332" s="23"/>
@@ -17859,9 +17887,9 @@
       <c r="AW332" s="26"/>
     </row>
     <row r="333" ht="18.0" customHeight="1">
-      <c r="A333" s="30"/>
-      <c r="B333" s="32"/>
-      <c r="C333" s="32"/>
+      <c r="A333" s="32"/>
+      <c r="B333" s="31"/>
+      <c r="C333" s="31"/>
       <c r="D333" s="22"/>
       <c r="E333" s="23"/>
       <c r="F333" s="23"/>
@@ -17911,8 +17939,8 @@
     </row>
     <row r="334" ht="18.0" customHeight="1">
       <c r="A334" s="22"/>
-      <c r="B334" s="32"/>
-      <c r="C334" s="32"/>
+      <c r="B334" s="31"/>
+      <c r="C334" s="31"/>
       <c r="D334" s="22"/>
       <c r="E334" s="23"/>
       <c r="F334" s="23"/>
@@ -17961,9 +17989,9 @@
       <c r="AW334" s="26"/>
     </row>
     <row r="335" ht="18.0" customHeight="1">
-      <c r="A335" s="30"/>
-      <c r="B335" s="32"/>
-      <c r="C335" s="32"/>
+      <c r="A335" s="32"/>
+      <c r="B335" s="31"/>
+      <c r="C335" s="31"/>
       <c r="D335" s="22"/>
       <c r="E335" s="23"/>
       <c r="F335" s="23"/>
@@ -18013,8 +18041,8 @@
     </row>
     <row r="336" ht="18.0" customHeight="1">
       <c r="A336" s="22"/>
-      <c r="B336" s="32"/>
-      <c r="C336" s="32"/>
+      <c r="B336" s="31"/>
+      <c r="C336" s="31"/>
       <c r="D336" s="22"/>
       <c r="E336" s="23"/>
       <c r="F336" s="23"/>
@@ -18063,9 +18091,9 @@
       <c r="AW336" s="26"/>
     </row>
     <row r="337" ht="18.0" customHeight="1">
-      <c r="A337" s="30"/>
-      <c r="B337" s="32"/>
-      <c r="C337" s="32"/>
+      <c r="A337" s="32"/>
+      <c r="B337" s="31"/>
+      <c r="C337" s="31"/>
       <c r="D337" s="22"/>
       <c r="E337" s="23"/>
       <c r="F337" s="23"/>
@@ -18115,8 +18143,8 @@
     </row>
     <row r="338" ht="18.0" customHeight="1">
       <c r="A338" s="22"/>
-      <c r="B338" s="32"/>
-      <c r="C338" s="32"/>
+      <c r="B338" s="31"/>
+      <c r="C338" s="31"/>
       <c r="D338" s="22"/>
       <c r="E338" s="23"/>
       <c r="F338" s="23"/>
@@ -18165,9 +18193,9 @@
       <c r="AW338" s="26"/>
     </row>
     <row r="339" ht="18.0" customHeight="1">
-      <c r="A339" s="30"/>
-      <c r="B339" s="32"/>
-      <c r="C339" s="32"/>
+      <c r="A339" s="32"/>
+      <c r="B339" s="31"/>
+      <c r="C339" s="31"/>
       <c r="D339" s="22"/>
       <c r="E339" s="23"/>
       <c r="F339" s="23"/>
@@ -18217,8 +18245,8 @@
     </row>
     <row r="340" ht="18.0" customHeight="1">
       <c r="A340" s="22"/>
-      <c r="B340" s="32"/>
-      <c r="C340" s="32"/>
+      <c r="B340" s="31"/>
+      <c r="C340" s="31"/>
       <c r="D340" s="22"/>
       <c r="E340" s="23"/>
       <c r="F340" s="23"/>
@@ -18267,9 +18295,9 @@
       <c r="AW340" s="26"/>
     </row>
     <row r="341" ht="18.0" customHeight="1">
-      <c r="A341" s="30"/>
-      <c r="B341" s="32"/>
-      <c r="C341" s="32"/>
+      <c r="A341" s="32"/>
+      <c r="B341" s="31"/>
+      <c r="C341" s="31"/>
       <c r="D341" s="22"/>
       <c r="E341" s="23"/>
       <c r="F341" s="23"/>
@@ -18319,7 +18347,7 @@
     </row>
     <row r="342" ht="18.0" customHeight="1">
       <c r="A342" s="22"/>
-      <c r="B342" s="32"/>
+      <c r="B342" s="31"/>
       <c r="C342" s="33"/>
       <c r="D342" s="22"/>
       <c r="E342" s="23"/>
@@ -18369,9 +18397,9 @@
       <c r="AW342" s="26"/>
     </row>
     <row r="343" ht="18.0" customHeight="1">
-      <c r="A343" s="30"/>
-      <c r="B343" s="32"/>
-      <c r="C343" s="32"/>
+      <c r="A343" s="32"/>
+      <c r="B343" s="31"/>
+      <c r="C343" s="31"/>
       <c r="D343" s="22"/>
       <c r="E343" s="23"/>
       <c r="F343" s="23"/>
@@ -18421,8 +18449,8 @@
     </row>
     <row r="344" ht="18.0" customHeight="1">
       <c r="A344" s="22"/>
-      <c r="B344" s="32"/>
-      <c r="C344" s="32"/>
+      <c r="B344" s="31"/>
+      <c r="C344" s="31"/>
       <c r="D344" s="22"/>
       <c r="E344" s="23"/>
       <c r="F344" s="23"/>
@@ -18471,8 +18499,8 @@
       <c r="AW344" s="26"/>
     </row>
     <row r="345" ht="18.0" customHeight="1">
-      <c r="A345" s="30"/>
-      <c r="B345" s="32"/>
+      <c r="A345" s="32"/>
+      <c r="B345" s="31"/>
       <c r="C345" s="33"/>
       <c r="D345" s="22"/>
       <c r="E345" s="23"/>
@@ -18523,8 +18551,8 @@
     </row>
     <row r="346" ht="18.0" customHeight="1">
       <c r="A346" s="22"/>
-      <c r="B346" s="32"/>
-      <c r="C346" s="32"/>
+      <c r="B346" s="31"/>
+      <c r="C346" s="31"/>
       <c r="D346" s="22"/>
       <c r="E346" s="23"/>
       <c r="F346" s="23"/>
@@ -18573,9 +18601,9 @@
       <c r="AW346" s="26"/>
     </row>
     <row r="347" ht="18.0" customHeight="1">
-      <c r="A347" s="30"/>
-      <c r="B347" s="32"/>
-      <c r="C347" s="32"/>
+      <c r="A347" s="32"/>
+      <c r="B347" s="31"/>
+      <c r="C347" s="31"/>
       <c r="D347" s="22"/>
       <c r="E347" s="23"/>
       <c r="F347" s="23"/>
@@ -18625,8 +18653,8 @@
     </row>
     <row r="348" ht="18.0" customHeight="1">
       <c r="A348" s="22"/>
-      <c r="B348" s="32"/>
-      <c r="C348" s="32"/>
+      <c r="B348" s="31"/>
+      <c r="C348" s="31"/>
       <c r="D348" s="22"/>
       <c r="E348" s="23"/>
       <c r="F348" s="23"/>
@@ -18675,9 +18703,9 @@
       <c r="AW348" s="26"/>
     </row>
     <row r="349" ht="18.0" customHeight="1">
-      <c r="A349" s="30"/>
-      <c r="B349" s="32"/>
-      <c r="C349" s="32"/>
+      <c r="A349" s="32"/>
+      <c r="B349" s="31"/>
+      <c r="C349" s="31"/>
       <c r="D349" s="22"/>
       <c r="E349" s="23"/>
       <c r="F349" s="23"/>
@@ -18727,8 +18755,8 @@
     </row>
     <row r="350" ht="18.0" customHeight="1">
       <c r="A350" s="22"/>
-      <c r="B350" s="32"/>
-      <c r="C350" s="32"/>
+      <c r="B350" s="31"/>
+      <c r="C350" s="31"/>
       <c r="D350" s="22"/>
       <c r="E350" s="23"/>
       <c r="F350" s="23"/>
@@ -18777,9 +18805,9 @@
       <c r="AW350" s="26"/>
     </row>
     <row r="351" ht="18.0" customHeight="1">
-      <c r="A351" s="30"/>
-      <c r="B351" s="32"/>
-      <c r="C351" s="32"/>
+      <c r="A351" s="32"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="31"/>
       <c r="D351" s="22"/>
       <c r="E351" s="23"/>
       <c r="F351" s="23"/>
@@ -18829,8 +18857,8 @@
     </row>
     <row r="352" ht="18.0" customHeight="1">
       <c r="A352" s="22"/>
-      <c r="B352" s="32"/>
-      <c r="C352" s="32"/>
+      <c r="B352" s="31"/>
+      <c r="C352" s="31"/>
       <c r="D352" s="22"/>
       <c r="E352" s="23"/>
       <c r="F352" s="23"/>
@@ -18879,9 +18907,9 @@
       <c r="AW352" s="26"/>
     </row>
     <row r="353" ht="18.0" customHeight="1">
-      <c r="A353" s="30"/>
-      <c r="B353" s="32"/>
-      <c r="C353" s="32"/>
+      <c r="A353" s="32"/>
+      <c r="B353" s="31"/>
+      <c r="C353" s="31"/>
       <c r="D353" s="22"/>
       <c r="E353" s="23"/>
       <c r="F353" s="23"/>
@@ -18931,8 +18959,8 @@
     </row>
     <row r="354" ht="18.0" customHeight="1">
       <c r="A354" s="22"/>
-      <c r="B354" s="32"/>
-      <c r="C354" s="32"/>
+      <c r="B354" s="31"/>
+      <c r="C354" s="31"/>
       <c r="D354" s="22"/>
       <c r="E354" s="23"/>
       <c r="F354" s="23"/>
@@ -18981,9 +19009,9 @@
       <c r="AW354" s="26"/>
     </row>
     <row r="355" ht="18.0" customHeight="1">
-      <c r="A355" s="30"/>
-      <c r="B355" s="32"/>
-      <c r="C355" s="32"/>
+      <c r="A355" s="32"/>
+      <c r="B355" s="31"/>
+      <c r="C355" s="31"/>
       <c r="D355" s="22"/>
       <c r="E355" s="23"/>
       <c r="F355" s="23"/>
@@ -19033,8 +19061,8 @@
     </row>
     <row r="356" ht="18.0" customHeight="1">
       <c r="A356" s="22"/>
-      <c r="B356" s="32"/>
-      <c r="C356" s="32"/>
+      <c r="B356" s="31"/>
+      <c r="C356" s="31"/>
       <c r="D356" s="22"/>
       <c r="E356" s="23"/>
       <c r="F356" s="23"/>
@@ -19083,9 +19111,9 @@
       <c r="AW356" s="26"/>
     </row>
     <row r="357" ht="18.0" customHeight="1">
-      <c r="A357" s="30"/>
-      <c r="B357" s="32"/>
-      <c r="C357" s="32"/>
+      <c r="A357" s="32"/>
+      <c r="B357" s="31"/>
+      <c r="C357" s="31"/>
       <c r="D357" s="22"/>
       <c r="E357" s="23"/>
       <c r="F357" s="23"/>
@@ -19135,8 +19163,8 @@
     </row>
     <row r="358" ht="18.0" customHeight="1">
       <c r="A358" s="22"/>
-      <c r="B358" s="32"/>
-      <c r="C358" s="32"/>
+      <c r="B358" s="31"/>
+      <c r="C358" s="31"/>
       <c r="D358" s="22"/>
       <c r="E358" s="23"/>
       <c r="F358" s="23"/>
@@ -19185,9 +19213,9 @@
       <c r="AW358" s="26"/>
     </row>
     <row r="359" ht="18.0" customHeight="1">
-      <c r="A359" s="30"/>
-      <c r="B359" s="32"/>
-      <c r="C359" s="32"/>
+      <c r="A359" s="32"/>
+      <c r="B359" s="31"/>
+      <c r="C359" s="31"/>
       <c r="D359" s="22"/>
       <c r="E359" s="23"/>
       <c r="F359" s="23"/>
@@ -19237,8 +19265,8 @@
     </row>
     <row r="360" ht="18.0" customHeight="1">
       <c r="A360" s="22"/>
-      <c r="B360" s="32"/>
-      <c r="C360" s="32"/>
+      <c r="B360" s="31"/>
+      <c r="C360" s="31"/>
       <c r="D360" s="22"/>
       <c r="E360" s="23"/>
       <c r="F360" s="23"/>
@@ -19287,9 +19315,9 @@
       <c r="AW360" s="26"/>
     </row>
     <row r="361" ht="18.0" customHeight="1">
-      <c r="A361" s="30"/>
-      <c r="B361" s="32"/>
-      <c r="C361" s="32"/>
+      <c r="A361" s="32"/>
+      <c r="B361" s="31"/>
+      <c r="C361" s="31"/>
       <c r="D361" s="22"/>
       <c r="E361" s="23"/>
       <c r="F361" s="23"/>
@@ -19339,8 +19367,8 @@
     </row>
     <row r="362" ht="18.0" customHeight="1">
       <c r="A362" s="22"/>
-      <c r="B362" s="32"/>
-      <c r="C362" s="32"/>
+      <c r="B362" s="31"/>
+      <c r="C362" s="31"/>
       <c r="D362" s="22"/>
       <c r="E362" s="23"/>
       <c r="F362" s="23"/>
@@ -19389,9 +19417,9 @@
       <c r="AW362" s="26"/>
     </row>
     <row r="363" ht="18.0" customHeight="1">
-      <c r="A363" s="30"/>
-      <c r="B363" s="32"/>
-      <c r="C363" s="32"/>
+      <c r="A363" s="32"/>
+      <c r="B363" s="31"/>
+      <c r="C363" s="31"/>
       <c r="D363" s="22"/>
       <c r="E363" s="23"/>
       <c r="F363" s="23"/>
@@ -19441,8 +19469,8 @@
     </row>
     <row r="364" ht="18.0" customHeight="1">
       <c r="A364" s="22"/>
-      <c r="B364" s="32"/>
-      <c r="C364" s="32"/>
+      <c r="B364" s="31"/>
+      <c r="C364" s="31"/>
       <c r="D364" s="22"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23"/>
@@ -19491,9 +19519,9 @@
       <c r="AW364" s="26"/>
     </row>
     <row r="365" ht="18.0" customHeight="1">
-      <c r="A365" s="30"/>
-      <c r="B365" s="32"/>
-      <c r="C365" s="32"/>
+      <c r="A365" s="32"/>
+      <c r="B365" s="31"/>
+      <c r="C365" s="31"/>
       <c r="D365" s="22"/>
       <c r="E365" s="23"/>
       <c r="F365" s="23"/>
@@ -19543,8 +19571,8 @@
     </row>
     <row r="366" ht="18.0" customHeight="1">
       <c r="A366" s="22"/>
-      <c r="B366" s="32"/>
-      <c r="C366" s="32"/>
+      <c r="B366" s="31"/>
+      <c r="C366" s="31"/>
       <c r="D366" s="22"/>
       <c r="E366" s="23"/>
       <c r="F366" s="23"/>
@@ -19593,9 +19621,9 @@
       <c r="AW366" s="26"/>
     </row>
     <row r="367" ht="18.0" customHeight="1">
-      <c r="A367" s="30"/>
-      <c r="B367" s="32"/>
-      <c r="C367" s="32"/>
+      <c r="A367" s="32"/>
+      <c r="B367" s="31"/>
+      <c r="C367" s="31"/>
       <c r="D367" s="22"/>
       <c r="E367" s="23"/>
       <c r="F367" s="23"/>
@@ -19645,8 +19673,8 @@
     </row>
     <row r="368" ht="18.0" customHeight="1">
       <c r="A368" s="22"/>
-      <c r="B368" s="32"/>
-      <c r="C368" s="32"/>
+      <c r="B368" s="31"/>
+      <c r="C368" s="31"/>
       <c r="D368" s="22"/>
       <c r="E368" s="23"/>
       <c r="F368" s="23"/>
@@ -19695,9 +19723,9 @@
       <c r="AW368" s="26"/>
     </row>
     <row r="369" ht="18.0" customHeight="1">
-      <c r="A369" s="30"/>
-      <c r="B369" s="32"/>
-      <c r="C369" s="32"/>
+      <c r="A369" s="32"/>
+      <c r="B369" s="31"/>
+      <c r="C369" s="31"/>
       <c r="D369" s="22"/>
       <c r="E369" s="23"/>
       <c r="F369" s="23"/>
@@ -19747,8 +19775,8 @@
     </row>
     <row r="370" ht="18.0" customHeight="1">
       <c r="A370" s="22"/>
-      <c r="B370" s="32"/>
-      <c r="C370" s="32"/>
+      <c r="B370" s="31"/>
+      <c r="C370" s="31"/>
       <c r="D370" s="22"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23"/>
@@ -19797,9 +19825,9 @@
       <c r="AW370" s="26"/>
     </row>
     <row r="371" ht="18.0" customHeight="1">
-      <c r="A371" s="30"/>
-      <c r="B371" s="32"/>
-      <c r="C371" s="32"/>
+      <c r="A371" s="32"/>
+      <c r="B371" s="31"/>
+      <c r="C371" s="31"/>
       <c r="D371" s="22"/>
       <c r="E371" s="23"/>
       <c r="F371" s="23"/>
@@ -19849,8 +19877,8 @@
     </row>
     <row r="372" ht="18.0" customHeight="1">
       <c r="A372" s="22"/>
-      <c r="B372" s="32"/>
-      <c r="C372" s="32"/>
+      <c r="B372" s="31"/>
+      <c r="C372" s="31"/>
       <c r="D372" s="22"/>
       <c r="E372" s="23"/>
       <c r="F372" s="23"/>
@@ -19899,9 +19927,9 @@
       <c r="AW372" s="26"/>
     </row>
     <row r="373" ht="18.0" customHeight="1">
-      <c r="A373" s="30"/>
-      <c r="B373" s="32"/>
-      <c r="C373" s="32"/>
+      <c r="A373" s="32"/>
+      <c r="B373" s="31"/>
+      <c r="C373" s="31"/>
       <c r="D373" s="22"/>
       <c r="E373" s="23"/>
       <c r="F373" s="23"/>
@@ -19951,8 +19979,8 @@
     </row>
     <row r="374" ht="18.0" customHeight="1">
       <c r="A374" s="22"/>
-      <c r="B374" s="32"/>
-      <c r="C374" s="32"/>
+      <c r="B374" s="31"/>
+      <c r="C374" s="31"/>
       <c r="D374" s="22"/>
       <c r="E374" s="23"/>
       <c r="F374" s="23"/>
@@ -20001,9 +20029,9 @@
       <c r="AW374" s="26"/>
     </row>
     <row r="375" ht="18.0" customHeight="1">
-      <c r="A375" s="30"/>
-      <c r="B375" s="32"/>
-      <c r="C375" s="32"/>
+      <c r="A375" s="32"/>
+      <c r="B375" s="31"/>
+      <c r="C375" s="31"/>
       <c r="D375" s="22"/>
       <c r="E375" s="23"/>
       <c r="F375" s="23"/>
@@ -20053,8 +20081,8 @@
     </row>
     <row r="376" ht="18.0" customHeight="1">
       <c r="A376" s="22"/>
-      <c r="B376" s="32"/>
-      <c r="C376" s="32"/>
+      <c r="B376" s="31"/>
+      <c r="C376" s="31"/>
       <c r="D376" s="22"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23"/>
@@ -20103,9 +20131,9 @@
       <c r="AW376" s="26"/>
     </row>
     <row r="377" ht="18.0" customHeight="1">
-      <c r="A377" s="30"/>
-      <c r="B377" s="32"/>
-      <c r="C377" s="32"/>
+      <c r="A377" s="32"/>
+      <c r="B377" s="31"/>
+      <c r="C377" s="31"/>
       <c r="D377" s="22"/>
       <c r="E377" s="23"/>
       <c r="F377" s="23"/>
@@ -20155,8 +20183,8 @@
     </row>
     <row r="378" ht="18.0" customHeight="1">
       <c r="A378" s="22"/>
-      <c r="B378" s="32"/>
-      <c r="C378" s="32"/>
+      <c r="B378" s="31"/>
+      <c r="C378" s="31"/>
       <c r="D378" s="22"/>
       <c r="E378" s="23"/>
       <c r="F378" s="23"/>
@@ -20205,9 +20233,9 @@
       <c r="AW378" s="26"/>
     </row>
     <row r="379" ht="18.0" customHeight="1">
-      <c r="A379" s="30"/>
-      <c r="B379" s="32"/>
-      <c r="C379" s="32"/>
+      <c r="A379" s="32"/>
+      <c r="B379" s="31"/>
+      <c r="C379" s="31"/>
       <c r="D379" s="22"/>
       <c r="E379" s="23"/>
       <c r="F379" s="23"/>
@@ -20257,8 +20285,8 @@
     </row>
     <row r="380" ht="18.0" customHeight="1">
       <c r="A380" s="22"/>
-      <c r="B380" s="32"/>
-      <c r="C380" s="32"/>
+      <c r="B380" s="31"/>
+      <c r="C380" s="31"/>
       <c r="D380" s="22"/>
       <c r="E380" s="23"/>
       <c r="F380" s="23"/>
@@ -20307,9 +20335,9 @@
       <c r="AW380" s="26"/>
     </row>
     <row r="381" ht="18.0" customHeight="1">
-      <c r="A381" s="30"/>
-      <c r="B381" s="32"/>
-      <c r="C381" s="32"/>
+      <c r="A381" s="32"/>
+      <c r="B381" s="31"/>
+      <c r="C381" s="31"/>
       <c r="D381" s="22"/>
       <c r="E381" s="23"/>
       <c r="F381" s="23"/>
@@ -20359,8 +20387,8 @@
     </row>
     <row r="382" ht="18.0" customHeight="1">
       <c r="A382" s="22"/>
-      <c r="B382" s="32"/>
-      <c r="C382" s="32"/>
+      <c r="B382" s="31"/>
+      <c r="C382" s="31"/>
       <c r="D382" s="22"/>
       <c r="E382" s="23"/>
       <c r="F382" s="23"/>
@@ -20409,9 +20437,9 @@
       <c r="AW382" s="26"/>
     </row>
     <row r="383" ht="18.0" customHeight="1">
-      <c r="A383" s="30"/>
-      <c r="B383" s="32"/>
-      <c r="C383" s="32"/>
+      <c r="A383" s="32"/>
+      <c r="B383" s="31"/>
+      <c r="C383" s="31"/>
       <c r="D383" s="22"/>
       <c r="E383" s="23"/>
       <c r="F383" s="23"/>
@@ -20461,8 +20489,8 @@
     </row>
     <row r="384" ht="18.0" customHeight="1">
       <c r="A384" s="22"/>
-      <c r="B384" s="32"/>
-      <c r="C384" s="32"/>
+      <c r="B384" s="31"/>
+      <c r="C384" s="31"/>
       <c r="D384" s="22"/>
       <c r="E384" s="23"/>
       <c r="F384" s="23"/>
@@ -20511,9 +20539,9 @@
       <c r="AW384" s="26"/>
     </row>
     <row r="385" ht="18.0" customHeight="1">
-      <c r="A385" s="30"/>
-      <c r="B385" s="32"/>
-      <c r="C385" s="32"/>
+      <c r="A385" s="32"/>
+      <c r="B385" s="31"/>
+      <c r="C385" s="31"/>
       <c r="D385" s="22"/>
       <c r="E385" s="23"/>
       <c r="F385" s="23"/>
@@ -20563,8 +20591,8 @@
     </row>
     <row r="386" ht="18.0" customHeight="1">
       <c r="A386" s="22"/>
-      <c r="B386" s="32"/>
-      <c r="C386" s="32"/>
+      <c r="B386" s="31"/>
+      <c r="C386" s="31"/>
       <c r="D386" s="22"/>
       <c r="E386" s="23"/>
       <c r="F386" s="23"/>
@@ -20613,9 +20641,9 @@
       <c r="AW386" s="26"/>
     </row>
     <row r="387" ht="18.0" customHeight="1">
-      <c r="A387" s="30"/>
-      <c r="B387" s="32"/>
-      <c r="C387" s="32"/>
+      <c r="A387" s="32"/>
+      <c r="B387" s="31"/>
+      <c r="C387" s="31"/>
       <c r="D387" s="22"/>
       <c r="E387" s="23"/>
       <c r="F387" s="23"/>
@@ -20665,8 +20693,8 @@
     </row>
     <row r="388" ht="18.0" customHeight="1">
       <c r="A388" s="22"/>
-      <c r="B388" s="32"/>
-      <c r="C388" s="32"/>
+      <c r="B388" s="31"/>
+      <c r="C388" s="31"/>
       <c r="D388" s="22"/>
       <c r="E388" s="23"/>
       <c r="F388" s="23"/>
@@ -20715,9 +20743,9 @@
       <c r="AW388" s="26"/>
     </row>
     <row r="389" ht="18.0" customHeight="1">
-      <c r="A389" s="30"/>
-      <c r="B389" s="32"/>
-      <c r="C389" s="32"/>
+      <c r="A389" s="32"/>
+      <c r="B389" s="31"/>
+      <c r="C389" s="31"/>
       <c r="D389" s="22"/>
       <c r="E389" s="23"/>
       <c r="F389" s="23"/>
@@ -20767,8 +20795,8 @@
     </row>
     <row r="390" ht="18.0" customHeight="1">
       <c r="A390" s="22"/>
-      <c r="B390" s="32"/>
-      <c r="C390" s="32"/>
+      <c r="B390" s="31"/>
+      <c r="C390" s="31"/>
       <c r="D390" s="22"/>
       <c r="E390" s="23"/>
       <c r="F390" s="23"/>
@@ -20817,9 +20845,9 @@
       <c r="AW390" s="26"/>
     </row>
     <row r="391" ht="18.0" customHeight="1">
-      <c r="A391" s="30"/>
-      <c r="B391" s="32"/>
-      <c r="C391" s="32"/>
+      <c r="A391" s="32"/>
+      <c r="B391" s="31"/>
+      <c r="C391" s="31"/>
       <c r="D391" s="22"/>
       <c r="E391" s="23"/>
       <c r="F391" s="23"/>
@@ -20869,8 +20897,8 @@
     </row>
     <row r="392" ht="18.0" customHeight="1">
       <c r="A392" s="22"/>
-      <c r="B392" s="32"/>
-      <c r="C392" s="32"/>
+      <c r="B392" s="31"/>
+      <c r="C392" s="31"/>
       <c r="D392" s="22"/>
       <c r="E392" s="23"/>
       <c r="F392" s="23"/>
@@ -20919,9 +20947,9 @@
       <c r="AW392" s="26"/>
     </row>
     <row r="393" ht="18.0" customHeight="1">
-      <c r="A393" s="30"/>
-      <c r="B393" s="32"/>
-      <c r="C393" s="32"/>
+      <c r="A393" s="32"/>
+      <c r="B393" s="31"/>
+      <c r="C393" s="31"/>
       <c r="D393" s="22"/>
       <c r="E393" s="23"/>
       <c r="F393" s="23"/>
@@ -20971,8 +20999,8 @@
     </row>
     <row r="394" ht="18.0" customHeight="1">
       <c r="A394" s="22"/>
-      <c r="B394" s="32"/>
-      <c r="C394" s="32"/>
+      <c r="B394" s="31"/>
+      <c r="C394" s="31"/>
       <c r="D394" s="22"/>
       <c r="E394" s="23"/>
       <c r="F394" s="23"/>
@@ -21021,9 +21049,9 @@
       <c r="AW394" s="26"/>
     </row>
     <row r="395" ht="18.0" customHeight="1">
-      <c r="A395" s="30"/>
-      <c r="B395" s="32"/>
-      <c r="C395" s="32"/>
+      <c r="A395" s="32"/>
+      <c r="B395" s="31"/>
+      <c r="C395" s="31"/>
       <c r="D395" s="22"/>
       <c r="E395" s="23"/>
       <c r="F395" s="23"/>
@@ -21073,8 +21101,8 @@
     </row>
     <row r="396" ht="18.0" customHeight="1">
       <c r="A396" s="22"/>
-      <c r="B396" s="32"/>
-      <c r="C396" s="32"/>
+      <c r="B396" s="31"/>
+      <c r="C396" s="31"/>
       <c r="D396" s="22"/>
       <c r="E396" s="23"/>
       <c r="F396" s="23"/>
@@ -21123,9 +21151,9 @@
       <c r="AW396" s="26"/>
     </row>
     <row r="397" ht="18.0" customHeight="1">
-      <c r="A397" s="30"/>
-      <c r="B397" s="32"/>
-      <c r="C397" s="32"/>
+      <c r="A397" s="32"/>
+      <c r="B397" s="31"/>
+      <c r="C397" s="31"/>
       <c r="D397" s="22"/>
       <c r="E397" s="23"/>
       <c r="F397" s="23"/>
@@ -21175,8 +21203,8 @@
     </row>
     <row r="398" ht="18.0" customHeight="1">
       <c r="A398" s="22"/>
-      <c r="B398" s="32"/>
-      <c r="C398" s="32"/>
+      <c r="B398" s="31"/>
+      <c r="C398" s="31"/>
       <c r="D398" s="22"/>
       <c r="E398" s="23"/>
       <c r="F398" s="23"/>
@@ -21225,9 +21253,9 @@
       <c r="AW398" s="26"/>
     </row>
     <row r="399" ht="18.0" customHeight="1">
-      <c r="A399" s="30"/>
-      <c r="B399" s="32"/>
-      <c r="C399" s="32"/>
+      <c r="A399" s="32"/>
+      <c r="B399" s="31"/>
+      <c r="C399" s="31"/>
       <c r="D399" s="22"/>
       <c r="E399" s="23"/>
       <c r="F399" s="23"/>
@@ -21277,8 +21305,8 @@
     </row>
     <row r="400" ht="18.0" customHeight="1">
       <c r="A400" s="22"/>
-      <c r="B400" s="32"/>
-      <c r="C400" s="32"/>
+      <c r="B400" s="31"/>
+      <c r="C400" s="31"/>
       <c r="D400" s="22"/>
       <c r="E400" s="23"/>
       <c r="F400" s="23"/>
@@ -21327,9 +21355,9 @@
       <c r="AW400" s="26"/>
     </row>
     <row r="401" ht="18.0" customHeight="1">
-      <c r="A401" s="30"/>
-      <c r="B401" s="32"/>
-      <c r="C401" s="32"/>
+      <c r="A401" s="32"/>
+      <c r="B401" s="31"/>
+      <c r="C401" s="31"/>
       <c r="D401" s="22"/>
       <c r="E401" s="23"/>
       <c r="F401" s="23"/>
@@ -21379,8 +21407,8 @@
     </row>
     <row r="402" ht="18.0" customHeight="1">
       <c r="A402" s="22"/>
-      <c r="B402" s="32"/>
-      <c r="C402" s="32"/>
+      <c r="B402" s="31"/>
+      <c r="C402" s="31"/>
       <c r="D402" s="22"/>
       <c r="E402" s="23"/>
       <c r="F402" s="23"/>
@@ -21429,9 +21457,9 @@
       <c r="AW402" s="26"/>
     </row>
     <row r="403" ht="18.0" customHeight="1">
-      <c r="A403" s="30"/>
-      <c r="B403" s="32"/>
-      <c r="C403" s="32"/>
+      <c r="A403" s="32"/>
+      <c r="B403" s="31"/>
+      <c r="C403" s="31"/>
       <c r="D403" s="22"/>
       <c r="E403" s="23"/>
       <c r="F403" s="23"/>
@@ -21481,8 +21509,8 @@
     </row>
     <row r="404" ht="18.0" customHeight="1">
       <c r="A404" s="22"/>
-      <c r="B404" s="32"/>
-      <c r="C404" s="32"/>
+      <c r="B404" s="31"/>
+      <c r="C404" s="31"/>
       <c r="D404" s="22"/>
       <c r="E404" s="23"/>
       <c r="F404" s="23"/>
@@ -21531,9 +21559,9 @@
       <c r="AW404" s="26"/>
     </row>
     <row r="405" ht="18.0" customHeight="1">
-      <c r="A405" s="30"/>
-      <c r="B405" s="32"/>
-      <c r="C405" s="32"/>
+      <c r="A405" s="32"/>
+      <c r="B405" s="31"/>
+      <c r="C405" s="31"/>
       <c r="D405" s="22"/>
       <c r="E405" s="23"/>
       <c r="F405" s="23"/>
@@ -21583,8 +21611,8 @@
     </row>
     <row r="406" ht="18.0" customHeight="1">
       <c r="A406" s="22"/>
-      <c r="B406" s="32"/>
-      <c r="C406" s="32"/>
+      <c r="B406" s="31"/>
+      <c r="C406" s="31"/>
       <c r="D406" s="22"/>
       <c r="E406" s="23"/>
       <c r="F406" s="23"/>
@@ -21633,9 +21661,9 @@
       <c r="AW406" s="26"/>
     </row>
     <row r="407" ht="18.0" customHeight="1">
-      <c r="A407" s="30"/>
-      <c r="B407" s="32"/>
-      <c r="C407" s="32"/>
+      <c r="A407" s="32"/>
+      <c r="B407" s="31"/>
+      <c r="C407" s="31"/>
       <c r="D407" s="22"/>
       <c r="E407" s="23"/>
       <c r="F407" s="23"/>
@@ -21685,8 +21713,8 @@
     </row>
     <row r="408" ht="18.0" customHeight="1">
       <c r="A408" s="22"/>
-      <c r="B408" s="32"/>
-      <c r="C408" s="32"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="31"/>
       <c r="D408" s="22"/>
       <c r="E408" s="23"/>
       <c r="F408" s="23"/>
@@ -21735,9 +21763,9 @@
       <c r="AW408" s="26"/>
     </row>
     <row r="409" ht="18.0" customHeight="1">
-      <c r="A409" s="30"/>
-      <c r="B409" s="32"/>
-      <c r="C409" s="32"/>
+      <c r="A409" s="32"/>
+      <c r="B409" s="31"/>
+      <c r="C409" s="31"/>
       <c r="D409" s="22"/>
       <c r="E409" s="23"/>
       <c r="F409" s="23"/>
@@ -21787,8 +21815,8 @@
     </row>
     <row r="410" ht="18.0" customHeight="1">
       <c r="A410" s="22"/>
-      <c r="B410" s="32"/>
-      <c r="C410" s="32"/>
+      <c r="B410" s="31"/>
+      <c r="C410" s="31"/>
       <c r="D410" s="22"/>
       <c r="E410" s="23"/>
       <c r="F410" s="23"/>
@@ -21837,9 +21865,9 @@
       <c r="AW410" s="26"/>
     </row>
     <row r="411" ht="18.0" customHeight="1">
-      <c r="A411" s="30"/>
-      <c r="B411" s="32"/>
-      <c r="C411" s="32"/>
+      <c r="A411" s="32"/>
+      <c r="B411" s="31"/>
+      <c r="C411" s="31"/>
       <c r="D411" s="22"/>
       <c r="E411" s="23"/>
       <c r="F411" s="23"/>
@@ -21889,8 +21917,8 @@
     </row>
     <row r="412" ht="18.0" customHeight="1">
       <c r="A412" s="22"/>
-      <c r="B412" s="32"/>
-      <c r="C412" s="32"/>
+      <c r="B412" s="31"/>
+      <c r="C412" s="31"/>
       <c r="D412" s="22"/>
       <c r="E412" s="23"/>
       <c r="F412" s="23"/>
@@ -21939,9 +21967,9 @@
       <c r="AW412" s="26"/>
     </row>
     <row r="413" ht="18.0" customHeight="1">
-      <c r="A413" s="30"/>
-      <c r="B413" s="32"/>
-      <c r="C413" s="32"/>
+      <c r="A413" s="32"/>
+      <c r="B413" s="31"/>
+      <c r="C413" s="31"/>
       <c r="D413" s="22"/>
       <c r="E413" s="23"/>
       <c r="F413" s="23"/>
@@ -21991,8 +22019,8 @@
     </row>
     <row r="414" ht="18.0" customHeight="1">
       <c r="A414" s="22"/>
-      <c r="B414" s="32"/>
-      <c r="C414" s="32"/>
+      <c r="B414" s="31"/>
+      <c r="C414" s="31"/>
       <c r="D414" s="22"/>
       <c r="E414" s="23"/>
       <c r="F414" s="23"/>
@@ -22041,9 +22069,9 @@
       <c r="AW414" s="26"/>
     </row>
     <row r="415" ht="18.0" customHeight="1">
-      <c r="A415" s="30"/>
-      <c r="B415" s="32"/>
-      <c r="C415" s="32"/>
+      <c r="A415" s="32"/>
+      <c r="B415" s="31"/>
+      <c r="C415" s="31"/>
       <c r="D415" s="22"/>
       <c r="E415" s="23"/>
       <c r="F415" s="23"/>
@@ -22093,8 +22121,8 @@
     </row>
     <row r="416" ht="18.0" customHeight="1">
       <c r="A416" s="22"/>
-      <c r="B416" s="32"/>
-      <c r="C416" s="32"/>
+      <c r="B416" s="31"/>
+      <c r="C416" s="31"/>
       <c r="D416" s="22"/>
       <c r="E416" s="23"/>
       <c r="F416" s="23"/>
@@ -22143,9 +22171,9 @@
       <c r="AW416" s="26"/>
     </row>
     <row r="417" ht="18.0" customHeight="1">
-      <c r="A417" s="30"/>
-      <c r="B417" s="32"/>
-      <c r="C417" s="32"/>
+      <c r="A417" s="32"/>
+      <c r="B417" s="31"/>
+      <c r="C417" s="31"/>
       <c r="D417" s="22"/>
       <c r="E417" s="23"/>
       <c r="F417" s="23"/>
@@ -22195,8 +22223,8 @@
     </row>
     <row r="418" ht="18.0" customHeight="1">
       <c r="A418" s="22"/>
-      <c r="B418" s="32"/>
-      <c r="C418" s="32"/>
+      <c r="B418" s="31"/>
+      <c r="C418" s="31"/>
       <c r="D418" s="22"/>
       <c r="E418" s="23"/>
       <c r="F418" s="23"/>
@@ -22245,9 +22273,9 @@
       <c r="AW418" s="26"/>
     </row>
     <row r="419" ht="18.0" customHeight="1">
-      <c r="A419" s="30"/>
-      <c r="B419" s="32"/>
-      <c r="C419" s="32"/>
+      <c r="A419" s="32"/>
+      <c r="B419" s="31"/>
+      <c r="C419" s="31"/>
       <c r="D419" s="22"/>
       <c r="E419" s="23"/>
       <c r="F419" s="23"/>
@@ -22297,8 +22325,8 @@
     </row>
     <row r="420" ht="18.0" customHeight="1">
       <c r="A420" s="22"/>
-      <c r="B420" s="32"/>
-      <c r="C420" s="32"/>
+      <c r="B420" s="31"/>
+      <c r="C420" s="31"/>
       <c r="D420" s="22"/>
       <c r="E420" s="23"/>
       <c r="F420" s="23"/>
@@ -22347,9 +22375,9 @@
       <c r="AW420" s="26"/>
     </row>
     <row r="421" ht="18.0" customHeight="1">
-      <c r="A421" s="30"/>
-      <c r="B421" s="32"/>
-      <c r="C421" s="32"/>
+      <c r="A421" s="32"/>
+      <c r="B421" s="31"/>
+      <c r="C421" s="31"/>
       <c r="D421" s="22"/>
       <c r="E421" s="23"/>
       <c r="F421" s="23"/>
@@ -22399,8 +22427,8 @@
     </row>
     <row r="422" ht="18.0" customHeight="1">
       <c r="A422" s="22"/>
-      <c r="B422" s="32"/>
-      <c r="C422" s="32"/>
+      <c r="B422" s="31"/>
+      <c r="C422" s="31"/>
       <c r="D422" s="22"/>
       <c r="E422" s="23"/>
       <c r="F422" s="23"/>
@@ -22449,9 +22477,9 @@
       <c r="AW422" s="26"/>
     </row>
     <row r="423" ht="18.0" customHeight="1">
-      <c r="A423" s="30"/>
-      <c r="B423" s="32"/>
-      <c r="C423" s="32"/>
+      <c r="A423" s="32"/>
+      <c r="B423" s="31"/>
+      <c r="C423" s="31"/>
       <c r="D423" s="22"/>
       <c r="E423" s="23"/>
       <c r="F423" s="23"/>
@@ -22501,8 +22529,8 @@
     </row>
     <row r="424" ht="18.0" customHeight="1">
       <c r="A424" s="22"/>
-      <c r="B424" s="32"/>
-      <c r="C424" s="32"/>
+      <c r="B424" s="31"/>
+      <c r="C424" s="31"/>
       <c r="D424" s="22"/>
       <c r="E424" s="23"/>
       <c r="F424" s="23"/>
@@ -22551,9 +22579,9 @@
       <c r="AW424" s="26"/>
     </row>
     <row r="425" ht="18.0" customHeight="1">
-      <c r="A425" s="30"/>
-      <c r="B425" s="32"/>
-      <c r="C425" s="32"/>
+      <c r="A425" s="32"/>
+      <c r="B425" s="31"/>
+      <c r="C425" s="31"/>
       <c r="D425" s="22"/>
       <c r="E425" s="23"/>
       <c r="F425" s="23"/>
@@ -22603,8 +22631,8 @@
     </row>
     <row r="426" ht="18.0" customHeight="1">
       <c r="A426" s="22"/>
-      <c r="B426" s="32"/>
-      <c r="C426" s="32"/>
+      <c r="B426" s="31"/>
+      <c r="C426" s="31"/>
       <c r="D426" s="22"/>
       <c r="E426" s="23"/>
       <c r="F426" s="23"/>
@@ -22653,9 +22681,9 @@
       <c r="AW426" s="26"/>
     </row>
     <row r="427" ht="18.0" customHeight="1">
-      <c r="A427" s="30"/>
-      <c r="B427" s="32"/>
-      <c r="C427" s="32"/>
+      <c r="A427" s="32"/>
+      <c r="B427" s="31"/>
+      <c r="C427" s="31"/>
       <c r="D427" s="22"/>
       <c r="E427" s="23"/>
       <c r="F427" s="23"/>
@@ -22705,7 +22733,7 @@
     </row>
     <row r="428" ht="18.0" customHeight="1">
       <c r="A428" s="22"/>
-      <c r="B428" s="32"/>
+      <c r="B428" s="31"/>
       <c r="C428" s="33"/>
       <c r="D428" s="22"/>
       <c r="E428" s="23"/>
@@ -22755,9 +22783,9 @@
       <c r="AW428" s="26"/>
     </row>
     <row r="429" ht="18.0" customHeight="1">
-      <c r="A429" s="30"/>
-      <c r="B429" s="32"/>
-      <c r="C429" s="32"/>
+      <c r="A429" s="32"/>
+      <c r="B429" s="31"/>
+      <c r="C429" s="31"/>
       <c r="D429" s="22"/>
       <c r="E429" s="23"/>
       <c r="F429" s="23"/>
@@ -22807,8 +22835,8 @@
     </row>
     <row r="430" ht="18.0" customHeight="1">
       <c r="A430" s="22"/>
-      <c r="B430" s="32"/>
-      <c r="C430" s="32"/>
+      <c r="B430" s="31"/>
+      <c r="C430" s="31"/>
       <c r="D430" s="22"/>
       <c r="E430" s="23"/>
       <c r="F430" s="23"/>
@@ -22857,9 +22885,9 @@
       <c r="AW430" s="26"/>
     </row>
     <row r="431" ht="18.0" customHeight="1">
-      <c r="A431" s="30"/>
-      <c r="B431" s="32"/>
-      <c r="C431" s="32"/>
+      <c r="A431" s="32"/>
+      <c r="B431" s="31"/>
+      <c r="C431" s="31"/>
       <c r="D431" s="22"/>
       <c r="E431" s="23"/>
       <c r="F431" s="23"/>
@@ -22909,8 +22937,8 @@
     </row>
     <row r="432" ht="18.0" customHeight="1">
       <c r="A432" s="22"/>
-      <c r="B432" s="32"/>
-      <c r="C432" s="32"/>
+      <c r="B432" s="31"/>
+      <c r="C432" s="31"/>
       <c r="D432" s="22"/>
       <c r="E432" s="23"/>
       <c r="F432" s="23"/>
@@ -22959,9 +22987,9 @@
       <c r="AW432" s="26"/>
     </row>
     <row r="433" ht="18.0" customHeight="1">
-      <c r="A433" s="30"/>
-      <c r="B433" s="32"/>
-      <c r="C433" s="32"/>
+      <c r="A433" s="32"/>
+      <c r="B433" s="31"/>
+      <c r="C433" s="31"/>
       <c r="D433" s="22"/>
       <c r="E433" s="23"/>
       <c r="F433" s="23"/>
@@ -23011,8 +23039,8 @@
     </row>
     <row r="434" ht="18.0" customHeight="1">
       <c r="A434" s="22"/>
-      <c r="B434" s="32"/>
-      <c r="C434" s="32"/>
+      <c r="B434" s="31"/>
+      <c r="C434" s="31"/>
       <c r="D434" s="22"/>
       <c r="E434" s="23"/>
       <c r="F434" s="23"/>
@@ -23061,9 +23089,9 @@
       <c r="AW434" s="26"/>
     </row>
     <row r="435" ht="18.0" customHeight="1">
-      <c r="A435" s="30"/>
-      <c r="B435" s="32"/>
-      <c r="C435" s="32"/>
+      <c r="A435" s="32"/>
+      <c r="B435" s="31"/>
+      <c r="C435" s="31"/>
       <c r="D435" s="22"/>
       <c r="E435" s="23"/>
       <c r="F435" s="23"/>
@@ -23113,8 +23141,8 @@
     </row>
     <row r="436" ht="18.0" customHeight="1">
       <c r="A436" s="22"/>
-      <c r="B436" s="32"/>
-      <c r="C436" s="32"/>
+      <c r="B436" s="31"/>
+      <c r="C436" s="31"/>
       <c r="D436" s="22"/>
       <c r="E436" s="23"/>
       <c r="F436" s="23"/>
@@ -23163,9 +23191,9 @@
       <c r="AW436" s="26"/>
     </row>
     <row r="437" ht="18.0" customHeight="1">
-      <c r="A437" s="30"/>
-      <c r="B437" s="32"/>
-      <c r="C437" s="32"/>
+      <c r="A437" s="32"/>
+      <c r="B437" s="31"/>
+      <c r="C437" s="31"/>
       <c r="D437" s="22"/>
       <c r="E437" s="23"/>
       <c r="F437" s="23"/>
@@ -23215,8 +23243,8 @@
     </row>
     <row r="438" ht="18.0" customHeight="1">
       <c r="A438" s="22"/>
-      <c r="B438" s="32"/>
-      <c r="C438" s="32"/>
+      <c r="B438" s="31"/>
+      <c r="C438" s="31"/>
       <c r="D438" s="22"/>
       <c r="E438" s="23"/>
       <c r="F438" s="23"/>
@@ -23265,9 +23293,9 @@
       <c r="AW438" s="26"/>
     </row>
     <row r="439" ht="18.0" customHeight="1">
-      <c r="A439" s="30"/>
-      <c r="B439" s="32"/>
-      <c r="C439" s="32"/>
+      <c r="A439" s="32"/>
+      <c r="B439" s="31"/>
+      <c r="C439" s="31"/>
       <c r="D439" s="22"/>
       <c r="E439" s="23"/>
       <c r="F439" s="23"/>
@@ -23317,8 +23345,8 @@
     </row>
     <row r="440" ht="18.0" customHeight="1">
       <c r="A440" s="22"/>
-      <c r="B440" s="32"/>
-      <c r="C440" s="32"/>
+      <c r="B440" s="31"/>
+      <c r="C440" s="31"/>
       <c r="D440" s="22"/>
       <c r="E440" s="23"/>
       <c r="F440" s="23"/>
@@ -23367,9 +23395,9 @@
       <c r="AW440" s="26"/>
     </row>
     <row r="441" ht="18.0" customHeight="1">
-      <c r="A441" s="30"/>
-      <c r="B441" s="32"/>
-      <c r="C441" s="32"/>
+      <c r="A441" s="32"/>
+      <c r="B441" s="31"/>
+      <c r="C441" s="31"/>
       <c r="D441" s="22"/>
       <c r="E441" s="23"/>
       <c r="F441" s="23"/>
@@ -23419,8 +23447,8 @@
     </row>
     <row r="442" ht="18.0" customHeight="1">
       <c r="A442" s="22"/>
-      <c r="B442" s="32"/>
-      <c r="C442" s="32"/>
+      <c r="B442" s="31"/>
+      <c r="C442" s="31"/>
       <c r="D442" s="22"/>
       <c r="E442" s="23"/>
       <c r="F442" s="23"/>
@@ -23469,9 +23497,9 @@
       <c r="AW442" s="26"/>
     </row>
     <row r="443" ht="18.0" customHeight="1">
-      <c r="A443" s="30"/>
-      <c r="B443" s="32"/>
-      <c r="C443" s="32"/>
+      <c r="A443" s="32"/>
+      <c r="B443" s="31"/>
+      <c r="C443" s="31"/>
       <c r="D443" s="22"/>
       <c r="E443" s="23"/>
       <c r="F443" s="23"/>
@@ -23521,8 +23549,8 @@
     </row>
     <row r="444" ht="18.0" customHeight="1">
       <c r="A444" s="22"/>
-      <c r="B444" s="32"/>
-      <c r="C444" s="32"/>
+      <c r="B444" s="31"/>
+      <c r="C444" s="31"/>
       <c r="D444" s="22"/>
       <c r="E444" s="23"/>
       <c r="F444" s="23"/>
@@ -23571,9 +23599,9 @@
       <c r="AW444" s="26"/>
     </row>
     <row r="445" ht="18.0" customHeight="1">
-      <c r="A445" s="30"/>
-      <c r="B445" s="32"/>
-      <c r="C445" s="32"/>
+      <c r="A445" s="32"/>
+      <c r="B445" s="31"/>
+      <c r="C445" s="31"/>
       <c r="D445" s="22"/>
       <c r="E445" s="23"/>
       <c r="F445" s="23"/>
@@ -23623,8 +23651,8 @@
     </row>
     <row r="446" ht="18.0" customHeight="1">
       <c r="A446" s="22"/>
-      <c r="B446" s="32"/>
-      <c r="C446" s="32"/>
+      <c r="B446" s="31"/>
+      <c r="C446" s="31"/>
       <c r="D446" s="22"/>
       <c r="E446" s="23"/>
       <c r="F446" s="23"/>
@@ -23673,9 +23701,9 @@
       <c r="AW446" s="26"/>
     </row>
     <row r="447" ht="18.0" customHeight="1">
-      <c r="A447" s="30"/>
-      <c r="B447" s="32"/>
-      <c r="C447" s="32"/>
+      <c r="A447" s="32"/>
+      <c r="B447" s="31"/>
+      <c r="C447" s="31"/>
       <c r="D447" s="22"/>
       <c r="E447" s="23"/>
       <c r="F447" s="23"/>
@@ -23725,8 +23753,8 @@
     </row>
     <row r="448" ht="18.0" customHeight="1">
       <c r="A448" s="22"/>
-      <c r="B448" s="32"/>
-      <c r="C448" s="32"/>
+      <c r="B448" s="31"/>
+      <c r="C448" s="31"/>
       <c r="D448" s="22"/>
       <c r="E448" s="23"/>
       <c r="F448" s="23"/>
@@ -23775,9 +23803,9 @@
       <c r="AW448" s="26"/>
     </row>
     <row r="449" ht="18.0" customHeight="1">
-      <c r="A449" s="30"/>
-      <c r="B449" s="32"/>
-      <c r="C449" s="32"/>
+      <c r="A449" s="32"/>
+      <c r="B449" s="31"/>
+      <c r="C449" s="31"/>
       <c r="D449" s="22"/>
       <c r="E449" s="23"/>
       <c r="F449" s="23"/>
@@ -23827,8 +23855,8 @@
     </row>
     <row r="450" ht="18.0" customHeight="1">
       <c r="A450" s="22"/>
-      <c r="B450" s="32"/>
-      <c r="C450" s="32"/>
+      <c r="B450" s="31"/>
+      <c r="C450" s="31"/>
       <c r="D450" s="22"/>
       <c r="E450" s="23"/>
       <c r="F450" s="23"/>
@@ -23877,9 +23905,9 @@
       <c r="AW450" s="26"/>
     </row>
     <row r="451" ht="18.0" customHeight="1">
-      <c r="A451" s="30"/>
-      <c r="B451" s="32"/>
-      <c r="C451" s="32"/>
+      <c r="A451" s="32"/>
+      <c r="B451" s="31"/>
+      <c r="C451" s="31"/>
       <c r="D451" s="22"/>
       <c r="E451" s="23"/>
       <c r="F451" s="23"/>
@@ -23929,8 +23957,8 @@
     </row>
     <row r="452" ht="18.0" customHeight="1">
       <c r="A452" s="22"/>
-      <c r="B452" s="32"/>
-      <c r="C452" s="32"/>
+      <c r="B452" s="31"/>
+      <c r="C452" s="31"/>
       <c r="D452" s="22"/>
       <c r="E452" s="23"/>
       <c r="F452" s="23"/>
@@ -23979,9 +24007,9 @@
       <c r="AW452" s="26"/>
     </row>
     <row r="453" ht="18.0" customHeight="1">
-      <c r="A453" s="30"/>
-      <c r="B453" s="32"/>
-      <c r="C453" s="32"/>
+      <c r="A453" s="32"/>
+      <c r="B453" s="31"/>
+      <c r="C453" s="31"/>
       <c r="D453" s="22"/>
       <c r="E453" s="23"/>
       <c r="F453" s="23"/>
